--- a/NDC Minutas/Indicadores_Actualizados_ah_ed.xlsx
+++ b/NDC Minutas/Indicadores_Actualizados_ah_ed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\astri\DATA INTELLIGENCE Dropbox\Astrid Holmgren\2022\Proyecto Insumos reporte NDC - MMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516C2F76-BCDC-4F02-B2DD-C1A34BBD1A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF85C3C-1F6E-44AB-91D8-D4C410108A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D7B097FA-34D5-4141-BDD5-BC2E6699B835}"/>
   </bookViews>
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2119" uniqueCount="704">
   <si>
     <t>CP</t>
   </si>
@@ -549,21 +549,9 @@
     <t>https://mma.gob.cl/wp-content/uploads/2018/06/Plan-de-adaptacio%CC%81n-al-cambio-clima%CC%81tico-para-salud_2016.pdf</t>
   </si>
   <si>
-    <t>Se actualiza el Plan de Adaptación Salud el año 2022</t>
-  </si>
-  <si>
     <t>Comienzo de implementación de Plan de Adaptación Salud</t>
   </si>
   <si>
-    <t>El Plan de Adaptación Salud actualizado empieza a implementarse el año 2022</t>
-  </si>
-  <si>
-    <t>Se actualiza el Plan de Adaptación Salud el año 2027</t>
-  </si>
-  <si>
-    <t>El Plan de Adaptación Salud actualizado empieza a implementarse el año 2027</t>
-  </si>
-  <si>
     <t>Actualización del Plan de Adaptación Infraestructura</t>
   </si>
   <si>
@@ -600,9 +588,6 @@
     <t>El Plan de Adaptación Energía actualizado empieza a implementarse el año 2023</t>
   </si>
   <si>
-    <t>Este debiera ser 2024- 2028</t>
-  </si>
-  <si>
     <t>Se actualiza el Plan de Adaptación Energía el año 2028</t>
   </si>
   <si>
@@ -627,13 +612,7 @@
     <t>Plan 2018-2022. Sin información de actualización</t>
   </si>
   <si>
-    <t>El Plan de Adaptación Ciudades actualizado empieza a implementarse el año 2023</t>
-  </si>
-  <si>
     <t>Se actualiza el Plan de Adaptación Ciudades el año 2028</t>
-  </si>
-  <si>
-    <t>El Plan de Adaptación Ciudades actualizado empieza a implementarse el año 2028</t>
   </si>
   <si>
     <t>Actualización del Plan de Adaptación Turismo</t>
@@ -1071,9 +1050,6 @@
     <t>Al 2030, se habrá completado la implementación de la Política Nacional para la Reducción del Riesgo de Desastres 2019-2030, la que se ha armonizado al Marco de Sendai para la Reducción del Riesgo de Desastres, el Acuerdo de París  y  a  la  Agenda  2030  para  el  Desarrollo  Sostenible.  Adicionalmente, se contempla una revisión estratégica del instrumento al 2023.</t>
   </si>
   <si>
-    <t>Se revisa política nacional para la reducción de riesgos de desastres 2019-2020</t>
-  </si>
-  <si>
     <t>Existe informe de revisión de política.</t>
   </si>
   <si>
@@ -1084,9 +1060,6 @@
   </si>
   <si>
     <t>Se implementa política nacional de reducción de riesgo de desastres.</t>
-  </si>
-  <si>
-    <t>Existe informe de implementación.</t>
   </si>
   <si>
     <t>Informe de implementación y evidencia de acciones</t>
@@ -2466,19 +2439,7 @@
     <t>Hectáres intervenidas dirirgidas al manejo sustentable de bosque nativo/200000</t>
   </si>
   <si>
-    <t>idem</t>
-  </si>
-  <si>
-    <t>Las superficie de PM está reportada pero no dividido según  los criterios de sustentabilidad a) y b), sin emabargo todo lo que se hace bajo la ley y en el marco de la ENCCRV es con criterio de Sustentanbilidad (HAY QUE ASUMIR QUE TODO LO QUE ES PM ES SUSTENTABLE)</t>
-  </si>
-  <si>
     <t>Conaf maneja la superficie forestada por la corporación. Se hace la consulta a los privados pero no siempre comparten la información. (en el informe de INFOR están estas hectáreas forestada, del programa de reactivación 2020-2021)</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>el informe de INFOR  lo incluye</t>
   </si>
   <si>
     <t>MMA trabajo en conjunto</t>
@@ -2497,9 +2458,6 @@
       </rPr>
       <t xml:space="preserve"> Publicación de Bases de licitación del BID. Respecto al PNUD, la consultoria la tiene Maritza</t>
     </r>
-  </si>
-  <si>
-    <t>El Plan de Adaptación Minería empieza a implementarse el año 2024</t>
   </si>
   <si>
     <r>
@@ -2763,13 +2721,6 @@
 </t>
   </si>
   <si>
-    <t>Están sujetos al reglamento. Sin embargo existen avances: el año 2021 el MMA y PNUD elaboraron un estudio de Identificación de riesgo Climático en el sector minero …. Durante el año 2022 se desarrollará un estudio para planificar el proceso de elaboración de los planes y a la vez el diagnóstico tanto de Mitigación y Adaptación. Se contrata una Consultoria (con fondos del BID) para determinar las brechas de información, diganóstico, planificar segun los mandatos del reglamento de la Ley de CC. (Parten de la base de que el MMA tendrá el financiamiento: la ley marco tenia adjunto un informe financiero que indicaba que a ciertas instituciones publicas que tuvieran que realizar planes de Adaptación y mitigación se les asignaría un fondo tanto para la elaboración del plan y luego para implementar).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No se ha elaborado el Plan de Adapatación del sector minero, por lo que aún o se comienza su implementación.
-</t>
-  </si>
-  <si>
     <t>Plan de Adaptación Silvoagropecuario  2008-2012. No se encontró documento actualizado en la web. Se está actualizando, estará a finales del 2022. (se debiera solicitar como verificador) Antecedentes al respecto se puede revisar https://www.odepa.gob.cl/temas-transversales/plan-de-adaptacion-nacional-al-cambio-climatico-sector-silvoagropecuario</t>
   </si>
   <si>
@@ -2785,12 +2736,6 @@
     <t>Plan de 2015. Sin información de actualización. No se ha comenzado porque aun no hay una actualización oficial</t>
   </si>
   <si>
-    <t>Plan 2016. Sin información de actualización. Se inicio la actualización del Plan esperan tenerlo a finales del año 2023. Si bien están trabajando en la actulaización pero están sujeto al Reglamento del MMA. Recopilación de antecedentes y generación de Insumos (El MMA llamo una consultoría para la generación de insumos para el nuevo Plan de Adaptación (ARCLIM). El MINSAL fue llamados como contraparte técnica para aportar en el enfoque de esta, sobre todo desde la mirada sanitaria ejem: olas de calor).  Ellos como MINSAL se compromenten a tenerlo finalizado y enviado al CMS a mas tardar el Segundo semestre del 2024, sin embargo el plazo que se tome el CMS no es manejable por el MINSAL. El plan actual se ha estado implementando: actualmente se está redactando el Informe Final de implementación de las 16 medidas comprometidas, que se le entragrá al MINSAL, luego de pasar por el comité interno de CC del MINSAL, y de ahi al Ministro de Salud, y recièn ahí se envia a Contraloría y MMA. De todos modos el MINSAL a enviado los estados avances anualesal MMA.</t>
-  </si>
-  <si>
-    <t>Plan 2016. Sin información de actualización. Sse modificaron las fechas de Inicio y final del indicador ajsutado a la fecha de actulaización del plan</t>
-  </si>
-  <si>
     <t>Existe el "Plan de Adaptación y Mitigación de los Servicios de Infraestructura al Cambio Climático (PAMSICC)" (2017-2022).  Están buscando financiamiento, TdR para estudios Bases  y Consultorías para la actualización del Plan a ejecutarse  este año (Mercado Publico y otra con el BID) *MOP trabaja su Plan de Adpatación y Mitigación en conjunto (debieran existir indicadores para mitigación también). El PAMSICC se está implementando. MOP reporta anualmente al MMA: existe el reporte del Año 2021 (solicitar al MMA)</t>
   </si>
   <si>
@@ -2818,18 +2763,6 @@
     <t>En reunión con ONEMI, creian que tenian reportar. Se elaboró la Guia (año 2021) se está evaluando los pasos de formalidad y oficialización.</t>
   </si>
   <si>
-    <t xml:space="preserve">En reunión con ONEMI, Mesa por variable de Riesgo Meteorologico la lidera Onemi, ya está elaborado el Plan este año lo ajustaron y ahora se llama: Plan de Altas Temperaturas y Temperaturas extremas. Por ser un Plan de Emergencias se debe aprobar mediante una Resolución Exenta. Están proceso de visación de las distintas instituciones. </t>
-  </si>
-  <si>
-    <t>En reunión con ONEMI. No se ha inicicado sin embargo se han tenido reuniones exploratorias con MMA para trabajarlo en conjunto. Y aún están en plazo. Los Planes Regionales existente no incluyen aún Cambio Climático</t>
-  </si>
-  <si>
-    <t>Verificar que se realizaó la revisión y solicitar el informe de revisión. En reunión con ONEMI.Compromiso al 2023. La Política tiene un plan estrategico asociado.. Afinar el Comrpomiso: revisón anual de la Política? Debiera ser del Plan estrategico ya que a través del plan se implementa la política.</t>
-  </si>
-  <si>
-    <t>En reunión con Onemi. Aclarar si se refiere a la implementación de un eje en particular. El Plan estratégico aborda varios ejes y se han realizados acciones de implentación en varios</t>
-  </si>
-  <si>
     <t>Ya existen algunos indicadores que son reportados A través del informe del estado de Medio Ambiente (IEMA) en su capitulo de residuos, que este año pasará a ser un Capítulo de Economía Circular ampliándose los indicadores. Además otras acciones: Consultoría finaciada por el BID que va a desarrollar una propuesta de indicadores territoriales de economía circular. Programa de CORFO Transforma Territorio Circular que buscará monitorea el avance de las acciones de la Hoja de Ruta: son indicadores de proceso no de resutlado pero aporta al segumiento del avance nacional en economía circular.</t>
   </si>
   <si>
@@ -2846,9 +2779,6 @@
   </si>
   <si>
     <t>Aún no se ha iniciado dado que es para el año 2025, pero ya está considerado dentro del plan de actualización. De todos  modos la EDTTC actual considera como uno de sus insumos principales la ECLP (pag 26, EDTTC, 2021)</t>
-  </si>
-  <si>
-    <t>Chile cuenta con un Plan de Adaptación Minería el año 2024</t>
   </si>
   <si>
     <t>Se actualiza el Plan de Adaptación Turismo el año 2025</t>
@@ -3031,9 +2961,6 @@
  Verificador: Oficio SS.FFJW. ORD. N° 3805. Informa el acta de reunión de la Comisión Nacional de Uso del Borde Costero. Octubre 2021: Presentación de Objetivos y Metas de Largo Plazo del sector Borde Costero para la Estrategia Climática de Largo Plazo de Chile (ECLP) y Presentación de Instructivo para la Elaboración y Presentación de la Memoria Explicativa y Cartografía de Usos Preferentes de la Zonificación Regional del Borde Costero,</t>
   </si>
   <si>
-    <t>Equipo de Adaptación (MMA) Evaluar la participación de ONEMI</t>
-  </si>
-  <si>
     <t>Equipo Adaptación (MMA) Evaluar la participación de ONEMI</t>
   </si>
   <si>
@@ -3111,12 +3038,227 @@
   <si>
     <t xml:space="preserve">SUBPESCA reporta: Instancia de coordinación con SubPesca por las áreas protegidas marinas, a través del Comité Técnico para la protección de áreas protegidas marinas. MMA Reporta:La meta se cumple con Areas Protegidas Marinas (Reserva, A. Marinas Costera, Huemdales, etc).  Se está iniciando la discusión de los criterios para la incorporación de otras figuras del ordenamiento juridico nacional que sumarán superficie de protección (OMEC). Respcto a la  superficie de protección a la fecha elos lo tienen detallado (solicitar) </t>
   </si>
+  <si>
+    <t>El plazo debe actualizarse al periodo  2024- 2028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equipo de Adaptación (MMA) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equipo Adaptación (MMA) </t>
+  </si>
+  <si>
+    <t>Publicación de guía con lineamientos acerca del efecto del cambio climático en el fenómeno de movilidad humana en Chile.</t>
+  </si>
+  <si>
+    <t>Existencia del plan nacional específico por variable de riesgo de olas de calor.</t>
+  </si>
+  <si>
+    <t>Se revisa política nacional para la reducción de riesgos de desastres 2019-2030</t>
+  </si>
+  <si>
+    <t>Existe informe de revisión de la política nacional para la reducción de riesgos de desastres 2019-2030.</t>
+  </si>
+  <si>
+    <t>Existe informe de implementación</t>
+  </si>
+  <si>
+    <t>Existen reportes de implementación de la política nacional para la reducción de riesgos de desastres 2019-2030.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La Mesa por variable de Riesgo Meteorologico la lidera Onemi. Ya está elaborado el Plan: este año lo ajustaron y ahora se llama: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Plan de Altas Temperaturas y Temperaturas extremas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">. Por ser un Plan de Emergencias se debe aprobar mediante una Resolución Exenta. Están proceso de visación de las distintas instituciones. </t>
+    </r>
+  </si>
+  <si>
+    <t>En proceso de Oficialización</t>
+  </si>
+  <si>
+    <t>No se ha iniciado el proceso, sin embargo se han tenido reuniones exploratorias con MMA para trabajarlo en conjunto. Aún están dentro del plazo. Los Planes Regionales existente no incluyen aún Cambio Climático</t>
+  </si>
+  <si>
+    <t>Compromiso al 2023. La Política tiene un Plan Estratégico asociado. Se solicitar analizar el compromiso: no es la revisión de la Política, debiera ser del Plan estratégico ya que a través del plan se implementa la política. Por otro lado, especificar si será una revisión anual o sólo el año 2023.</t>
+  </si>
+  <si>
+    <t>Aclarar si se refiere a la implementación de un eje en particular. El Plan estratégico aborda varios ejes y se han realizados acciones de implementación en varios ejes.</t>
+  </si>
+  <si>
+    <t>Chile cuenta con un Plan de Adaptación de Minería el año 2024</t>
+  </si>
+  <si>
+    <t>El Plan de Adaptación de Minería empieza a implementarse el año 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se ha elaborado el Plan de Adaptación del sector minero, por lo que aún no se comienza su implementación.
+</t>
+  </si>
+  <si>
+    <t>No aplica: año 2027</t>
+  </si>
+  <si>
+    <r>
+      <t>Están sujetos a la existencia del reglamento establecido en la Ley Marco de Cambio Climático. Sin embargo, existen avances: el año 2021 el MMA y PNUD elaboraron un estudio de Identificación de riesgo Climático en el sector minero …. Durante el año 2022 se desarrollará un estudio para planificar el proceso de elaboración de los planes y a la vez el diagnóstico tanto de Mitigación y Adaptación. Se contrata una Consultoría con fondos del BID (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Consultoría de apoyo a planes de adaptación y mitigación de emisiones de GEI en el sector minero de
+Chile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>) para determinar las brechas de información, diagnóstico, planificar según los mandatos del reglamento de la Ley de Cambio Climático. (Parten de la base de que el MMA tendrá el financiamiento: la Ley Marco tenia adjunto un informe financiero que indicaba que a ciertas instituciones públicas que tuvieran que realizar planes de Adaptación y mitigación se les asignaría un fondo tanto para la elaboración del plan y luego para implementar).</t>
+    </r>
+  </si>
+  <si>
+    <t>Se actualiza el Plan de Adaptación al cambio climático sector Salud el año 2022</t>
+  </si>
+  <si>
+    <t>El Plan de Adaptación al cambio climático sector Salud actualizado empieza a implementarse el año 2022</t>
+  </si>
+  <si>
+    <t>Se actualiza el Plan de Adaptación al cambio climático sector Salud  el año 2027</t>
+  </si>
+  <si>
+    <t>El Plan de Adaptación al cambio climático sector Salud  actualizado empieza a implementarse el año 2027</t>
+  </si>
+  <si>
+    <t>Se inició la actualización del Plan, esperan tenerlo a finales del año 2023. Si bien están trabajando en la actualización, están sujeto a la existencia del Reglamento establecido en la Ley Marco de Cambio Climático por parte del MMA. Recopilación de antecedentes y generación de Insumos (El MMA llamó a una consultoría para la generación de insumos para el nuevo Plan de Adaptación (ARCLIM). El MINSAL fue llamado como contraparte técnica para aportar en el enfoque de esta, sobre todo desde la mirada sanitaria ejem: olas de calor). El MINSAL se comprometen a tenerlo finalizado y enviado al Consejo de Ministros para la Sustentabilidad (CMS) a más tardar el Segundo semestre del 2024, sin embargo el plazo que se tome el CMS no es manejable por el MINSAL. 
+El plan actual se ha estado implementando: actualmente se está redactando el Informe Final de implementación de las 16 medidas comprometidas, que se le entregará al comité interno de CC del MINSAL, y de ahí al Ministro de Salud, y posteriormente se envía a Contraloría y MMA. De todos modos el MINSAL ha enviado los estados avances anuales de la implementación del plan existente al MMA.</t>
+  </si>
+  <si>
+    <t>Plan 2016 aún no se ha actualizado. Se solicicta la modificación de las fechas de Inicio y final del indicador ajsutado a la fecha de actulaización del plan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Plan de Adaptación Ciudades actualizado empieza a implementarse </t>
+  </si>
+  <si>
+    <t>Decreto Supremo del Ministerio (Artículo 9 de la LMCC)</t>
+  </si>
+  <si>
+    <t>Primer Informe de avance.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">idem </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Adicionalmente se sugiere por parte de CONAF que el indicador mencione sólo capturas de carbono.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Las superficie de PM está reportada pero no dividido según  los criterios de sustentabilidad a) y b), sin emabargo todo lo que se hace bajo la ley y en el marco de la ENCCRV es con criterio de Sustentanbilidad (HAY QUE ASUMIR QUE TODO LO QUE ES PM ES SUSTENTABLE) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Adicionalmente CONAF sugiere: Todos los planes de manejo que se ejecutan en el marco de la ley tienen en consideración estos criterios, por tanto, no se presentarán acciones de manejo que no los consideren. Sugerimos no considerar este indicador, ya que será 100% siempre</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Idem lo indicado en el indicador I5-1-1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Se sugiere por parte de CONAF que diga forestadas y/o recuperadas</t>
+    </r>
+  </si>
+  <si>
+    <t>Los criterios del NDC, fueron establecido según las consideraciones de CONAF. Por lo que las forestaciones realizadas cumplen con los criterios. (Propuesta de Sud Austral)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Idem lo indicado en el indicador I5-1-1, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Se sugiere por parte de CONAF que el indicador mencione reducciones, que sólo debe indicar capturas</t>
+    </r>
+  </si>
+  <si>
+    <t>Por parte de CONAF consultan el significado de la división por 4 de la fórmula de cálculo. Y precisan que Este indicador debe considerar las emisiones por degradación y deforestación al 2030 respecto a las emisiones del 2001-2013.</t>
+  </si>
+  <si>
+    <t>CONAF aclara que el conteo de emisiones por degradación y deforestación no considera las regiones de Aysén y Magallanes, por tanto, las acciones en estas regiones no contribuyen. Por otro lado, la metodología de contabilidad no es directa en relación con actividades específica.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3328,14 +3470,25 @@
       <scheme val="major"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <name val="Calibri Light"/>
       <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="11">
@@ -3437,7 +3590,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3562,19 +3715,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3582,137 +3732,7 @@
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="46">
     <dxf>
       <font>
         <b val="0"/>
@@ -4291,6 +4311,156 @@
       </font>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4399,52 +4569,56 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Institución (s)" xr10:uid="{EAE47AB1-BA81-4943-9FF9-65C0656BB740}" cache="SegmentaciónDeDatos_Institución__s" caption="Institución (s) reportadora" startItem="6" columnCount="3" style="SlicerStyleOther2" rowHeight="144000"/>
+  <slicer name="Institución (s)" xr10:uid="{EAE47AB1-BA81-4943-9FF9-65C0656BB740}" cache="SegmentaciónDeDatos_Institución__s" caption="Institución (s) reportadora" columnCount="3" style="SlicerStyleOther2" rowHeight="144000"/>
 </slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9C691674-19AF-484D-BA40-CE1685260002}" name="Indicadores" displayName="Indicadores" ref="A8:AB143" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" tableBorderDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9C691674-19AF-484D-BA40-CE1685260002}" name="Indicadores" displayName="Indicadores" ref="A8:AB143" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29" tableBorderDxfId="28">
   <autoFilter ref="A8:AB143" xr:uid="{9C691674-19AF-484D-BA40-CE1685260002}">
     <filterColumn colId="14">
       <filters>
         <filter val="Aplica"/>
         <filter val="Aplica parcialmente"/>
-        <filter val="Cumplido"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="16">
+      <filters>
+        <filter val="Ministerio de Agricultura"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="28">
-    <tableColumn id="1" xr3:uid="{A637D274-7BEE-4DF9-9829-74354B7BF4BF}" name="CP" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{AF85D5E4-F9C9-48FB-BDB8-BB11625FE9C0}" name="Compromiso" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{DE298782-2092-4CE5-AE92-F48CD2D80ACF}" name="       " dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{9B7E3280-66FF-4776-84D5-09741666F79A}" name="Subcompromisos" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{FED3D366-301B-4326-A042-6B69D87F392B}" name="CSS" dataDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{7C22752E-D8E5-4D07-92B6-0380A48CF96E}" name="Acciones" dataDxfId="35"/>
-    <tableColumn id="7" xr3:uid="{04D74298-52D5-4739-A03F-027D51486B37}" name="Indicador" dataDxfId="34"/>
-    <tableColumn id="23" xr3:uid="{2159E68E-2F9F-4FB4-8B2E-25268FB4A667}" name="Propuesta indicador Sud Austral" dataDxfId="33"/>
-    <tableColumn id="8" xr3:uid="{22BE738C-F62B-4DE8-A8A4-0DE2E572D6C4}" name="Tipo de indicador" dataDxfId="32"/>
-    <tableColumn id="9" xr3:uid="{7012093F-66FD-439B-B49F-F5279D3BE7CF}" name="Medio de verificación" dataDxfId="31"/>
-    <tableColumn id="10" xr3:uid="{B9B8E479-10DD-47A8-B96B-7CB390A96684}" name="Fecha Inicio" dataDxfId="30"/>
-    <tableColumn id="11" xr3:uid="{5B2D5CE1-7290-4216-B9B1-96CC21496162}" name="Fecha Final" dataDxfId="29"/>
-    <tableColumn id="12" xr3:uid="{42453328-0BA0-4764-A069-E253BF4F7451}" name="Meta" dataDxfId="28"/>
-    <tableColumn id="13" xr3:uid="{82E54DDF-6CAB-4243-BCE6-A75E4647C331}" name="Unidad" dataDxfId="27"/>
-    <tableColumn id="14" xr3:uid="{32189004-A633-4600-9A28-DAE38E374DE6}" name="Estado" dataDxfId="26"/>
-    <tableColumn id="15" xr3:uid="{32F95575-977C-45CB-A472-E94B462BE523}" name="Método" dataDxfId="25"/>
-    <tableColumn id="16" xr3:uid="{57AA1AA1-A43A-475E-BB4B-DC38DAC73015}" name="Institución (s) reportadora" dataDxfId="24"/>
-    <tableColumn id="17" xr3:uid="{B0EA91ED-3611-4050-8662-DC2495D14A24}" name="Departamento / Unidad" dataDxfId="23"/>
-    <tableColumn id="21" xr3:uid="{92D62663-C516-423A-BB03-1AD2CA40A13F}" name="Contacto " dataDxfId="22"/>
-    <tableColumn id="18" xr3:uid="{C701B38F-57A7-473A-95B5-DCE062B6D8F6}" name="Detalle Institución (s) reportadora (s)" dataDxfId="21"/>
-    <tableColumn id="26" xr3:uid="{988128BA-7B5C-4126-8398-E8A1C06FBC80}" name="Detalle Institución (s) que  insuma" dataDxfId="20"/>
-    <tableColumn id="28" xr3:uid="{F564CE32-7DBC-495D-97F8-75B2D9DFB888}" name="Contacto insumos" dataDxfId="19"/>
-    <tableColumn id="19" xr3:uid="{AE7A5C81-DBAE-459D-A543-255F98295585}" name="Información" dataDxfId="18"/>
-    <tableColumn id="27" xr3:uid="{EAB6DBC2-249C-44B6-B11D-19D8474F697B}" name="Hitos" dataDxfId="17"/>
-    <tableColumn id="20" xr3:uid="{CCB516B6-A673-4A88-BEC4-ACBF75E8557E}" name="Observación medición" dataDxfId="16"/>
-    <tableColumn id="22" xr3:uid="{00E2074F-2070-4611-BFA2-EB894F50481F}" name="reunión" dataDxfId="15"/>
-    <tableColumn id="24" xr3:uid="{D907413E-9C21-48A1-AFBB-C8E9422FDA5F}" name="clave" dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{A637D274-7BEE-4DF9-9829-74354B7BF4BF}" name="CP" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{AF85D5E4-F9C9-48FB-BDB8-BB11625FE9C0}" name="Compromiso" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{DE298782-2092-4CE5-AE92-F48CD2D80ACF}" name="       " dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{9B7E3280-66FF-4776-84D5-09741666F79A}" name="Subcompromisos" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{FED3D366-301B-4326-A042-6B69D87F392B}" name="CSS" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{7C22752E-D8E5-4D07-92B6-0380A48CF96E}" name="Acciones" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{04D74298-52D5-4739-A03F-027D51486B37}" name="Indicador" dataDxfId="21"/>
+    <tableColumn id="23" xr3:uid="{2159E68E-2F9F-4FB4-8B2E-25268FB4A667}" name="Propuesta indicador Sud Austral" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{22BE738C-F62B-4DE8-A8A4-0DE2E572D6C4}" name="Tipo de indicador" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{7012093F-66FD-439B-B49F-F5279D3BE7CF}" name="Medio de verificación" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{B9B8E479-10DD-47A8-B96B-7CB390A96684}" name="Fecha Inicio" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{5B2D5CE1-7290-4216-B9B1-96CC21496162}" name="Fecha Final" dataDxfId="16"/>
+    <tableColumn id="12" xr3:uid="{42453328-0BA0-4764-A069-E253BF4F7451}" name="Meta" dataDxfId="15"/>
+    <tableColumn id="13" xr3:uid="{82E54DDF-6CAB-4243-BCE6-A75E4647C331}" name="Unidad" dataDxfId="14"/>
+    <tableColumn id="14" xr3:uid="{32189004-A633-4600-9A28-DAE38E374DE6}" name="Estado" dataDxfId="13"/>
+    <tableColumn id="15" xr3:uid="{32F95575-977C-45CB-A472-E94B462BE523}" name="Método" dataDxfId="12"/>
+    <tableColumn id="16" xr3:uid="{57AA1AA1-A43A-475E-BB4B-DC38DAC73015}" name="Institución (s) reportadora" dataDxfId="11"/>
+    <tableColumn id="17" xr3:uid="{B0EA91ED-3611-4050-8662-DC2495D14A24}" name="Departamento / Unidad" dataDxfId="10"/>
+    <tableColumn id="21" xr3:uid="{92D62663-C516-423A-BB03-1AD2CA40A13F}" name="Contacto " dataDxfId="9"/>
+    <tableColumn id="18" xr3:uid="{C701B38F-57A7-473A-95B5-DCE062B6D8F6}" name="Detalle Institución (s) reportadora (s)" dataDxfId="8"/>
+    <tableColumn id="26" xr3:uid="{988128BA-7B5C-4126-8398-E8A1C06FBC80}" name="Detalle Institución (s) que  insuma" dataDxfId="7"/>
+    <tableColumn id="28" xr3:uid="{F564CE32-7DBC-495D-97F8-75B2D9DFB888}" name="Contacto insumos" dataDxfId="6"/>
+    <tableColumn id="19" xr3:uid="{AE7A5C81-DBAE-459D-A543-255F98295585}" name="Información" dataDxfId="5"/>
+    <tableColumn id="27" xr3:uid="{EAB6DBC2-249C-44B6-B11D-19D8474F697B}" name="Hitos" dataDxfId="4"/>
+    <tableColumn id="20" xr3:uid="{CCB516B6-A673-4A88-BEC4-ACBF75E8557E}" name="Observación medición" dataDxfId="3"/>
+    <tableColumn id="22" xr3:uid="{00E2074F-2070-4611-BFA2-EB894F50481F}" name="reunión" dataDxfId="2"/>
+    <tableColumn id="24" xr3:uid="{D907413E-9C21-48A1-AFBB-C8E9422FDA5F}" name="clave" dataDxfId="1">
       <calculatedColumnFormula>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{0B1669F2-12B4-4FA5-91DF-D2A1552F8DEC}" name="Cambio de fechas" dataDxfId="13"/>
+    <tableColumn id="25" xr3:uid="{0B1669F2-12B4-4FA5-91DF-D2A1552F8DEC}" name="Cambio de fechas" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4752,8 +4926,8 @@
   </sheetPr>
   <dimension ref="A8:AH1018"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="P100" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Y106" sqref="Y106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4793,7 +4967,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>653</v>
+        <v>630</v>
       </c>
       <c r="D8" s="35" t="s">
         <v>2</v>
@@ -4844,31 +5018,31 @@
         <v>16</v>
       </c>
       <c r="T8" s="34" t="s">
-        <v>651</v>
+        <v>628</v>
       </c>
       <c r="U8" s="34" t="s">
-        <v>652</v>
+        <v>629</v>
       </c>
       <c r="V8" s="34" t="s">
-        <v>657</v>
+        <v>634</v>
       </c>
       <c r="W8" s="34" t="s">
         <v>17</v>
       </c>
       <c r="X8" s="34" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="Y8" s="34" t="s">
         <v>18</v>
       </c>
       <c r="Z8" s="17" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="AA8" s="19" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
@@ -4877,7 +5051,7 @@
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
     </row>
-    <row r="9" spans="1:34" ht="69" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" ht="69" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -4941,10 +5115,10 @@
       </c>
       <c r="X9" s="8"/>
       <c r="Y9" s="1" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="AA9" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -4958,7 +5132,7 @@
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
     </row>
-    <row r="10" spans="1:34" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -5025,7 +5199,7 @@
         <v>37</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="AA10" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -5039,7 +5213,7 @@
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
     </row>
-    <row r="11" spans="1:34" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -5106,7 +5280,7 @@
         <v>41</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="AA11" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -5120,7 +5294,7 @@
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
     </row>
-    <row r="12" spans="1:34" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
@@ -5187,7 +5361,7 @@
         <v>48</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="AA12" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -5201,7 +5375,7 @@
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
     </row>
-    <row r="13" spans="1:34" ht="81.599999999999994" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" ht="122.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>50</v>
       </c>
@@ -5224,7 +5398,7 @@
         <v>54</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>36</v>
@@ -5268,7 +5442,7 @@
         <v>60</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="AA13" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -5282,7 +5456,7 @@
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
     </row>
-    <row r="14" spans="1:34" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
@@ -5349,7 +5523,7 @@
         <v>65</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="AA14" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -5363,7 +5537,7 @@
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
     </row>
-    <row r="15" spans="1:34" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" ht="151.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>67</v>
       </c>
@@ -5386,7 +5560,7 @@
         <v>71</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>72</v>
@@ -5417,7 +5591,7 @@
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="30" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="T15" s="38" t="s">
         <v>58</v>
@@ -5428,13 +5602,13 @@
         <v>75</v>
       </c>
       <c r="X15" s="32" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="Y15" s="38" t="s">
-        <v>673</v>
+        <v>650</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA15" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -5448,7 +5622,7 @@
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
     </row>
-    <row r="16" spans="1:34" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
@@ -5458,7 +5632,7 @@
       <c r="C16" s="20">
         <v>1</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="42" t="s">
         <v>69</v>
       </c>
       <c r="E16" s="20">
@@ -5471,7 +5645,7 @@
         <v>77</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>36</v>
@@ -5502,7 +5676,7 @@
       </c>
       <c r="R16" s="1"/>
       <c r="S16" s="30" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="T16" s="38" t="s">
         <v>58</v>
@@ -5514,10 +5688,10 @@
       </c>
       <c r="X16" s="8"/>
       <c r="Y16" s="38" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA16" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -5531,7 +5705,7 @@
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
     </row>
-    <row r="17" spans="1:34" ht="177.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" ht="177.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>67</v>
       </c>
@@ -5541,8 +5715,8 @@
       <c r="C17" s="20">
         <v>2</v>
       </c>
-      <c r="D17" s="45" t="s">
-        <v>679</v>
+      <c r="D17" s="42" t="s">
+        <v>655</v>
       </c>
       <c r="E17" s="20">
         <v>1</v>
@@ -5587,10 +5761,10 @@
         <v>84</v>
       </c>
       <c r="S17" s="30" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="T17" s="38" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
@@ -5598,20 +5772,20 @@
         <v>86</v>
       </c>
       <c r="X17" s="32" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="Y17" s="38" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA17" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
         <v>A2-2-1</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
@@ -5620,7 +5794,7 @@
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
     </row>
-    <row r="18" spans="1:34" ht="136.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34" ht="136.80000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>67</v>
       </c>
@@ -5631,7 +5805,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>679</v>
+        <v>655</v>
       </c>
       <c r="E18" s="1">
         <v>2</v>
@@ -5692,7 +5866,7 @@
         <v>A2-2-2</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
@@ -5701,7 +5875,7 @@
       <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
     </row>
-    <row r="19" spans="1:34" ht="179.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" ht="179.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>67</v>
       </c>
@@ -5712,7 +5886,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>679</v>
+        <v>655</v>
       </c>
       <c r="E19" s="1">
         <v>3</v>
@@ -5755,7 +5929,7 @@
       </c>
       <c r="R19" s="1"/>
       <c r="S19" s="1" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="T19" s="38" t="s">
         <v>91</v>
@@ -5766,20 +5940,20 @@
         <v>92</v>
       </c>
       <c r="X19" s="32" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="Y19" s="38" t="s">
-        <v>674</v>
+        <v>651</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA19" s="20" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
         <v>A2-2-3</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
@@ -5788,7 +5962,7 @@
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
     </row>
-    <row r="20" spans="1:34" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>67</v>
       </c>
@@ -5799,7 +5973,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>679</v>
+        <v>655</v>
       </c>
       <c r="E20" s="1">
         <v>4</v>
@@ -5842,7 +6016,7 @@
       </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1" t="s">
-        <v>629</v>
+        <v>606</v>
       </c>
       <c r="T20" s="38" t="s">
         <v>91</v>
@@ -5853,20 +6027,20 @@
         <v>92</v>
       </c>
       <c r="X20" s="38" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="Y20" s="38" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA20" s="20" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
         <v>A2-2-4</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
@@ -5875,7 +6049,7 @@
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
     </row>
-    <row r="21" spans="1:34" ht="289.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" ht="345" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>67</v>
       </c>
@@ -5886,7 +6060,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>679</v>
+        <v>655</v>
       </c>
       <c r="E21" s="1">
         <v>5</v>
@@ -5898,13 +6072,13 @@
         <v>82</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>626</v>
+        <v>683</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>72</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="K21" s="21">
         <v>2022</v>
@@ -5929,7 +6103,7 @@
       </c>
       <c r="R21" s="1"/>
       <c r="S21" s="1" t="s">
-        <v>630</v>
+        <v>607</v>
       </c>
       <c r="T21" s="38" t="s">
         <v>97</v>
@@ -5938,20 +6112,20 @@
       <c r="V21" s="1"/>
       <c r="W21" s="9"/>
       <c r="X21" s="38" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="Y21" s="38" t="s">
-        <v>598</v>
+        <v>687</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA21" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
         <v>A2-2-5</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
@@ -5960,7 +6134,7 @@
       <c r="AG21" s="1"/>
       <c r="AH21" s="1"/>
     </row>
-    <row r="22" spans="1:34" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>67</v>
       </c>
@@ -5971,7 +6145,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>679</v>
+        <v>655</v>
       </c>
       <c r="E22" s="1">
         <v>6</v>
@@ -5983,7 +6157,7 @@
         <v>77</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>536</v>
+        <v>684</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>36</v>
@@ -6014,7 +6188,7 @@
       </c>
       <c r="R22" s="1"/>
       <c r="S22" s="1" t="s">
-        <v>630</v>
+        <v>607</v>
       </c>
       <c r="T22" s="38" t="s">
         <v>97</v>
@@ -6024,17 +6198,17 @@
       <c r="W22" s="9"/>
       <c r="X22" s="9"/>
       <c r="Y22" s="38" t="s">
-        <v>599</v>
+        <v>685</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA22" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
         <v>A2-2-6</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
@@ -6054,13 +6228,13 @@
         <v>2</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>680</v>
+        <v>656</v>
       </c>
       <c r="E23" s="1">
         <v>7</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="G23" s="20" t="s">
         <v>82</v>
@@ -6097,10 +6271,10 @@
       </c>
       <c r="R23" s="1"/>
       <c r="S23" s="1" t="s">
-        <v>631</v>
+        <v>608</v>
       </c>
       <c r="T23" s="38" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
@@ -6108,20 +6282,20 @@
         <v>101</v>
       </c>
       <c r="X23" s="38" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="Y23" s="38" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA23" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
         <v>A2-2-7</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
@@ -6141,7 +6315,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>681</v>
+        <v>657</v>
       </c>
       <c r="E24" s="1">
         <v>8</v>
@@ -6184,10 +6358,10 @@
       </c>
       <c r="R24" s="1"/>
       <c r="S24" s="1" t="s">
-        <v>631</v>
+        <v>608</v>
       </c>
       <c r="T24" s="38" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
@@ -6196,17 +6370,17 @@
       </c>
       <c r="X24" s="8"/>
       <c r="Y24" s="38" t="s">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA24" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
         <v>A2-2-8</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
@@ -6215,7 +6389,7 @@
       <c r="AG24" s="1"/>
       <c r="AH24" s="1"/>
     </row>
-    <row r="25" spans="1:34" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:34" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>67</v>
       </c>
@@ -6226,7 +6400,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="E25" s="1">
         <v>9</v>
@@ -6269,10 +6443,10 @@
       </c>
       <c r="R25" s="1"/>
       <c r="S25" s="1" t="s">
-        <v>631</v>
+        <v>608</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
@@ -6280,14 +6454,14 @@
       <c r="X25" s="8"/>
       <c r="Y25" s="4"/>
       <c r="Z25" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA25" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
         <v>A2-2-9</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
@@ -6296,7 +6470,7 @@
       <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
     </row>
-    <row r="26" spans="1:34" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>67</v>
       </c>
@@ -6307,7 +6481,7 @@
         <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="E26" s="1">
         <v>10</v>
@@ -6350,27 +6524,27 @@
       </c>
       <c r="R26" s="1"/>
       <c r="S26" s="1" t="s">
-        <v>631</v>
+        <v>608</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="8" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="X26" s="8"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA26" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
         <v>A2-2-10</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
@@ -6379,7 +6553,7 @@
       <c r="AG26" s="1"/>
       <c r="AH26" s="1"/>
     </row>
-    <row r="27" spans="1:34" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:34" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>67</v>
       </c>
@@ -6390,7 +6564,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>682</v>
+        <v>658</v>
       </c>
       <c r="E27" s="1">
         <v>11</v>
@@ -6402,7 +6576,7 @@
         <v>82</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>72</v>
@@ -6433,7 +6607,7 @@
       </c>
       <c r="R27" s="1"/>
       <c r="S27" s="30" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="T27" s="38" t="s">
         <v>108</v>
@@ -6444,20 +6618,20 @@
         <v>109</v>
       </c>
       <c r="X27" s="38" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="Y27" s="38" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA27" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
         <v>A2-2-11</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
@@ -6466,7 +6640,7 @@
       <c r="AG27" s="1"/>
       <c r="AH27" s="1"/>
     </row>
-    <row r="28" spans="1:34" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>67</v>
       </c>
@@ -6477,7 +6651,7 @@
         <v>2</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>682</v>
+        <v>658</v>
       </c>
       <c r="E28" s="1">
         <v>12</v>
@@ -6489,7 +6663,7 @@
         <v>77</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>36</v>
@@ -6520,7 +6694,7 @@
       </c>
       <c r="R28" s="1"/>
       <c r="S28" s="30" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="T28" s="38" t="s">
         <v>108</v>
@@ -6535,14 +6709,14 @@
         <v>110</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA28" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
         <v>A2-2-12</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
@@ -6551,7 +6725,7 @@
       <c r="AG28" s="1"/>
       <c r="AH28" s="1"/>
     </row>
-    <row r="29" spans="1:34" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>67</v>
       </c>
@@ -6562,7 +6736,7 @@
         <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="E29" s="1">
         <v>13</v>
@@ -6619,7 +6793,7 @@
         <v>A2-2-13</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
@@ -6628,7 +6802,7 @@
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
     </row>
-    <row r="30" spans="1:34" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>67</v>
       </c>
@@ -6639,7 +6813,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="E30" s="1">
         <v>14</v>
@@ -6696,7 +6870,7 @@
         <v>A2-2-14</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
@@ -6705,7 +6879,7 @@
       <c r="AG30" s="1"/>
       <c r="AH30" s="1"/>
     </row>
-    <row r="31" spans="1:34" ht="179.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" ht="179.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>67</v>
       </c>
@@ -6716,7 +6890,7 @@
         <v>2</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>683</v>
+        <v>659</v>
       </c>
       <c r="E31" s="1">
         <v>15</v>
@@ -6759,7 +6933,7 @@
       </c>
       <c r="R31" s="1"/>
       <c r="S31" s="30" t="s">
-        <v>690</v>
+        <v>666</v>
       </c>
       <c r="T31" s="38" t="s">
         <v>116</v>
@@ -6771,17 +6945,17 @@
       </c>
       <c r="X31" s="8"/>
       <c r="Y31" s="38" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA31" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
         <v>A2-2-15</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
@@ -6790,7 +6964,7 @@
       <c r="AG31" s="1"/>
       <c r="AH31" s="1"/>
     </row>
-    <row r="32" spans="1:34" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>67</v>
       </c>
@@ -6801,7 +6975,7 @@
         <v>2</v>
       </c>
       <c r="D32" s="38" t="s">
-        <v>683</v>
+        <v>659</v>
       </c>
       <c r="E32" s="1">
         <v>16</v>
@@ -6844,7 +7018,7 @@
       </c>
       <c r="R32" s="1"/>
       <c r="S32" s="30" t="s">
-        <v>690</v>
+        <v>666</v>
       </c>
       <c r="T32" s="38" t="s">
         <v>116</v>
@@ -6856,17 +7030,17 @@
       </c>
       <c r="X32" s="8"/>
       <c r="Y32" s="38" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="Z32" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA32" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
         <v>A2-2-16</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
@@ -6875,7 +7049,7 @@
       <c r="AG32" s="1"/>
       <c r="AH32" s="1"/>
     </row>
-    <row r="33" spans="1:34" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:34" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>67</v>
       </c>
@@ -6886,7 +7060,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="E33" s="1">
         <v>17</v>
@@ -6938,14 +7112,14 @@
       <c r="X33" s="9"/>
       <c r="Y33" s="1"/>
       <c r="Z33" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA33" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
         <v>A2-2-17</v>
       </c>
       <c r="AB33" s="1" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
@@ -6954,7 +7128,7 @@
       <c r="AG33" s="1"/>
       <c r="AH33" s="1"/>
     </row>
-    <row r="34" spans="1:34" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:34" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>67</v>
       </c>
@@ -6965,7 +7139,7 @@
         <v>2</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="E34" s="1">
         <v>18</v>
@@ -7017,14 +7191,14 @@
       <c r="X34" s="9"/>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA34" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
         <v>A2-2-18</v>
       </c>
       <c r="AB34" s="1" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
@@ -7033,7 +7207,7 @@
       <c r="AG34" s="1"/>
       <c r="AH34" s="1"/>
     </row>
-    <row r="35" spans="1:34" ht="367.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:34" ht="367.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>67</v>
       </c>
@@ -7044,7 +7218,7 @@
         <v>2</v>
       </c>
       <c r="D35" s="38" t="s">
-        <v>684</v>
+        <v>660</v>
       </c>
       <c r="E35" s="1">
         <v>19</v>
@@ -7056,7 +7230,7 @@
         <v>82</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>126</v>
+        <v>688</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>72</v>
@@ -7087,7 +7261,7 @@
       </c>
       <c r="R35" s="1"/>
       <c r="S35" s="30" t="s">
-        <v>633</v>
+        <v>610</v>
       </c>
       <c r="T35" s="38" t="s">
         <v>124</v>
@@ -7099,17 +7273,17 @@
       </c>
       <c r="X35" s="8"/>
       <c r="Y35" s="38" t="s">
-        <v>605</v>
+        <v>692</v>
       </c>
       <c r="Z35" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA35" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
         <v>A2-2-19</v>
       </c>
       <c r="AB35" s="1" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
@@ -7118,7 +7292,7 @@
       <c r="AG35" s="1"/>
       <c r="AH35" s="1"/>
     </row>
-    <row r="36" spans="1:34" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:34" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>67</v>
       </c>
@@ -7129,19 +7303,19 @@
         <v>2</v>
       </c>
       <c r="D36" s="38" t="s">
-        <v>684</v>
+        <v>660</v>
       </c>
       <c r="E36" s="1">
         <v>20</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G36" s="20" t="s">
         <v>77</v>
       </c>
       <c r="H36" s="20" t="s">
-        <v>128</v>
+        <v>689</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>36</v>
@@ -7172,7 +7346,7 @@
       </c>
       <c r="R36" s="1"/>
       <c r="S36" s="30" t="s">
-        <v>633</v>
+        <v>610</v>
       </c>
       <c r="T36" s="38" t="s">
         <v>124</v>
@@ -7184,17 +7358,17 @@
       </c>
       <c r="X36" s="8"/>
       <c r="Y36" s="38" t="s">
-        <v>606</v>
+        <v>693</v>
       </c>
       <c r="Z36" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA36" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
         <v>A2-2-20</v>
       </c>
       <c r="AB36" s="1" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
@@ -7203,7 +7377,7 @@
       <c r="AG36" s="1"/>
       <c r="AH36" s="1"/>
     </row>
-    <row r="37" spans="1:34" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:34" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>67</v>
       </c>
@@ -7214,7 +7388,7 @@
         <v>2</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="E37" s="1">
         <v>21</v>
@@ -7226,7 +7400,7 @@
         <v>82</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>129</v>
+        <v>690</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>72</v>
@@ -7266,14 +7440,14 @@
       <c r="X37" s="9"/>
       <c r="Y37" s="1"/>
       <c r="Z37" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA37" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
         <v>A2-2-21</v>
       </c>
       <c r="AB37" s="1" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
@@ -7282,7 +7456,7 @@
       <c r="AG37" s="1"/>
       <c r="AH37" s="1"/>
     </row>
-    <row r="38" spans="1:34" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:34" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>67</v>
       </c>
@@ -7293,19 +7467,19 @@
         <v>2</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="E38" s="1">
         <v>22</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G38" s="20" t="s">
         <v>77</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>130</v>
+        <v>691</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>36</v>
@@ -7314,10 +7488,10 @@
         <v>78</v>
       </c>
       <c r="K38" s="21">
-        <v>2027</v>
-      </c>
-      <c r="L38" s="21">
         <v>2029</v>
+      </c>
+      <c r="L38" s="3">
+        <v>2033</v>
       </c>
       <c r="M38" s="3">
         <v>100</v>
@@ -7345,14 +7519,14 @@
       <c r="X38" s="9"/>
       <c r="Y38" s="1"/>
       <c r="Z38" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA38" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
         <v>A2-2-22</v>
       </c>
       <c r="AB38" s="1" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
@@ -7361,7 +7535,7 @@
       <c r="AG38" s="1"/>
       <c r="AH38" s="1"/>
     </row>
-    <row r="39" spans="1:34" ht="179.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:34" ht="179.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>67</v>
       </c>
@@ -7372,19 +7546,19 @@
         <v>2</v>
       </c>
       <c r="D39" s="38" t="s">
-        <v>685</v>
+        <v>661</v>
       </c>
       <c r="E39" s="1">
         <v>27</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G39" s="20" t="s">
         <v>82</v>
       </c>
       <c r="H39" s="20" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>72</v>
@@ -7411,33 +7585,33 @@
         <v>57</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="R39" s="1"/>
       <c r="S39" s="1" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="T39" s="38" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
       <c r="W39" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="X39" s="8"/>
       <c r="Y39" s="38" t="s">
-        <v>607</v>
+        <v>589</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA39" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
         <v>A2-2-27</v>
       </c>
       <c r="AB39" s="1" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
@@ -7446,7 +7620,7 @@
       <c r="AG39" s="1"/>
       <c r="AH39" s="1"/>
     </row>
-    <row r="40" spans="1:34" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:34" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>67</v>
       </c>
@@ -7457,19 +7631,19 @@
         <v>2</v>
       </c>
       <c r="D40" s="38" t="s">
-        <v>686</v>
+        <v>662</v>
       </c>
       <c r="E40" s="1">
         <v>28</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G40" s="20" t="s">
         <v>77</v>
       </c>
       <c r="H40" s="20" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>36</v>
@@ -7496,33 +7670,33 @@
         <v>57</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="R40" s="1"/>
       <c r="S40" s="1" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="T40" s="38" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
       <c r="W40" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="X40" s="8"/>
       <c r="Y40" s="38" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="Z40" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA40" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
         <v>A2-2-28</v>
       </c>
       <c r="AB40" s="1" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
@@ -7531,7 +7705,7 @@
       <c r="AG40" s="1"/>
       <c r="AH40" s="1"/>
     </row>
-    <row r="41" spans="1:34" ht="136.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:34" ht="136.80000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>67</v>
       </c>
@@ -7542,19 +7716,19 @@
         <v>2</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="E41" s="1">
         <v>29</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G41" s="20" t="s">
         <v>82</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>72</v>
@@ -7581,14 +7755,14 @@
         <v>57</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="R41" s="1"/>
       <c r="S41" s="1" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="T41" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
@@ -7596,14 +7770,14 @@
       <c r="X41" s="9"/>
       <c r="Y41" s="1"/>
       <c r="Z41" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA41" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
         <v>A2-2-29</v>
       </c>
       <c r="AB41" s="1" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
@@ -7612,7 +7786,7 @@
       <c r="AG41" s="1"/>
       <c r="AH41" s="1"/>
     </row>
-    <row r="42" spans="1:34" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:34" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>67</v>
       </c>
@@ -7623,19 +7797,19 @@
         <v>2</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="E42" s="1">
         <v>30</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G42" s="20" t="s">
         <v>77</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>36</v>
@@ -7662,14 +7836,14 @@
         <v>57</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="R42" s="1"/>
       <c r="S42" s="1" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
@@ -7677,14 +7851,14 @@
       <c r="X42" s="9"/>
       <c r="Y42" s="1"/>
       <c r="Z42" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA42" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
         <v>A2-2-30</v>
       </c>
       <c r="AB42" s="1" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
@@ -7693,7 +7867,7 @@
       <c r="AG42" s="1"/>
       <c r="AH42" s="1"/>
     </row>
-    <row r="43" spans="1:34" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:34" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
@@ -7704,19 +7878,19 @@
         <v>2</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="E43" s="1">
         <v>31</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G43" s="20" t="s">
         <v>82</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>72</v>
@@ -7743,33 +7917,33 @@
         <v>57</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="R43" s="1"/>
       <c r="S43" s="1" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="T43" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
       <c r="W43" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="X43" s="8"/>
       <c r="Y43" s="1" t="s">
-        <v>608</v>
+        <v>590</v>
       </c>
       <c r="Z43" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA43" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
         <v>A2-2-31</v>
       </c>
       <c r="AB43" s="1" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
@@ -7778,7 +7952,7 @@
       <c r="AG43" s="1"/>
       <c r="AH43" s="1"/>
     </row>
-    <row r="44" spans="1:34" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:34" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>67</v>
       </c>
@@ -7789,19 +7963,19 @@
         <v>2</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="E44" s="1">
         <v>32</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G44" s="20" t="s">
         <v>77</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>36</v>
@@ -7828,33 +8002,33 @@
         <v>57</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="R44" s="1"/>
       <c r="S44" s="1" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="T44" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
       <c r="W44" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="X44" s="8"/>
       <c r="Y44" s="4" t="s">
-        <v>609</v>
+        <v>591</v>
       </c>
       <c r="Z44" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA44" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
         <v>A2-2-32</v>
       </c>
       <c r="AB44" s="1" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
@@ -7863,7 +8037,7 @@
       <c r="AG44" s="1"/>
       <c r="AH44" s="1"/>
     </row>
-    <row r="45" spans="1:34" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:34" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>67</v>
       </c>
@@ -7874,19 +8048,19 @@
         <v>2</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="E45" s="1">
         <v>33</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G45" s="20" t="s">
         <v>82</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>72</v>
@@ -7913,31 +8087,31 @@
         <v>57</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="R45" s="1"/>
       <c r="S45" s="1" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
       <c r="W45" s="9"/>
       <c r="X45" s="9"/>
       <c r="Y45" s="4" t="s">
-        <v>143</v>
+        <v>669</v>
       </c>
       <c r="Z45" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA45" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
         <v>A2-2-33</v>
       </c>
       <c r="AB45" s="1" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
@@ -7946,7 +8120,7 @@
       <c r="AG45" s="1"/>
       <c r="AH45" s="1"/>
     </row>
-    <row r="46" spans="1:34" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:34" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>67</v>
       </c>
@@ -7957,19 +8131,19 @@
         <v>2</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="E46" s="1">
         <v>34</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G46" s="20" t="s">
         <v>77</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>36</v>
@@ -7996,14 +8170,14 @@
         <v>57</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="R46" s="1"/>
       <c r="S46" s="1" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
@@ -8011,14 +8185,14 @@
       <c r="X46" s="9"/>
       <c r="Y46" s="1"/>
       <c r="Z46" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA46" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
         <v>A2-2-34</v>
       </c>
       <c r="AB46" s="1" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
@@ -8027,7 +8201,7 @@
       <c r="AG46" s="1"/>
       <c r="AH46" s="1"/>
     </row>
-    <row r="47" spans="1:34" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:34" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>67</v>
       </c>
@@ -8038,25 +8212,25 @@
         <v>2</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="E47" s="1">
         <v>35</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G47" s="20" t="s">
         <v>82</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J47" s="1" t="s">
-        <v>73</v>
+      <c r="J47" s="45" t="s">
+        <v>695</v>
       </c>
       <c r="K47" s="21">
         <v>2022</v>
@@ -8077,35 +8251,35 @@
         <v>57</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>636</v>
+        <v>613</v>
       </c>
       <c r="T47" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
       <c r="W47" s="8" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="X47" s="8"/>
       <c r="Y47" s="1" t="s">
-        <v>610</v>
+        <v>592</v>
       </c>
       <c r="Z47" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA47" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
         <v>A2-2-35</v>
       </c>
       <c r="AB47" s="1" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
@@ -8114,7 +8288,7 @@
       <c r="AG47" s="1"/>
       <c r="AH47" s="1"/>
     </row>
-    <row r="48" spans="1:34" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:34" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>67</v>
       </c>
@@ -8125,25 +8299,25 @@
         <v>2</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="E48" s="1">
         <v>36</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G48" s="20" t="s">
         <v>77</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>152</v>
+        <v>694</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J48" s="1" t="s">
-        <v>78</v>
+      <c r="J48" s="45" t="s">
+        <v>696</v>
       </c>
       <c r="K48" s="21">
         <v>2022</v>
@@ -8164,33 +8338,33 @@
         <v>57</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="R48" s="1"/>
       <c r="S48" s="1" t="s">
-        <v>636</v>
+        <v>613</v>
       </c>
       <c r="T48" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
       <c r="W48" s="8" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="X48" s="8"/>
       <c r="Y48" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="Z48" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA48" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
         <v>A2-2-36</v>
       </c>
       <c r="AB48" s="1" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
@@ -8199,7 +8373,7 @@
       <c r="AG48" s="1"/>
       <c r="AH48" s="1"/>
     </row>
-    <row r="49" spans="1:34" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:34" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>67</v>
       </c>
@@ -8210,25 +8384,25 @@
         <v>2</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="E49" s="1">
         <v>37</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G49" s="20" t="s">
         <v>82</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J49" s="1" t="s">
-        <v>73</v>
+      <c r="J49" s="45" t="s">
+        <v>695</v>
       </c>
       <c r="K49" s="21">
         <v>2027</v>
@@ -8249,14 +8423,14 @@
         <v>57</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="R49" s="1"/>
       <c r="S49" s="1" t="s">
-        <v>636</v>
+        <v>613</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
@@ -8264,14 +8438,14 @@
       <c r="X49" s="9"/>
       <c r="Y49" s="1"/>
       <c r="Z49" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA49" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
         <v>A2-2-37</v>
       </c>
       <c r="AB49" s="1" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="AC49" s="1"/>
       <c r="AD49" s="1"/>
@@ -8280,7 +8454,7 @@
       <c r="AG49" s="1"/>
       <c r="AH49" s="1"/>
     </row>
-    <row r="50" spans="1:34" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:34" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>67</v>
       </c>
@@ -8291,25 +8465,25 @@
         <v>2</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="E50" s="1">
         <v>38</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G50" s="20" t="s">
         <v>77</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>154</v>
+        <v>694</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J50" s="1" t="s">
-        <v>78</v>
+      <c r="J50" s="45" t="s">
+        <v>696</v>
       </c>
       <c r="K50" s="21">
         <v>2027</v>
@@ -8330,14 +8504,14 @@
         <v>57</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="R50" s="1"/>
       <c r="S50" s="1" t="s">
-        <v>636</v>
+        <v>613</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="U50" s="1"/>
       <c r="V50" s="1"/>
@@ -8345,14 +8519,14 @@
       <c r="X50" s="9"/>
       <c r="Y50" s="1"/>
       <c r="Z50" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA50" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
         <v>A2-2-38</v>
       </c>
       <c r="AB50" s="1" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="AC50" s="1"/>
       <c r="AD50" s="1"/>
@@ -8361,7 +8535,7 @@
       <c r="AG50" s="1"/>
       <c r="AH50" s="1"/>
     </row>
-    <row r="51" spans="1:34" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:34" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>67</v>
       </c>
@@ -8372,19 +8546,19 @@
         <v>2</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="E51" s="1">
         <v>39</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G51" s="20" t="s">
         <v>82</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>627</v>
+        <v>604</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>72</v>
@@ -8411,33 +8585,33 @@
         <v>57</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="R51" s="1"/>
       <c r="S51" s="33" t="s">
-        <v>637</v>
+        <v>614</v>
       </c>
       <c r="T51" s="1" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="U51" s="1"/>
       <c r="V51" s="1"/>
       <c r="W51" s="8" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="X51" s="8"/>
       <c r="Y51" s="1" t="s">
-        <v>611</v>
+        <v>593</v>
       </c>
       <c r="Z51" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA51" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
         <v>A2-2-39</v>
       </c>
       <c r="AB51" s="1" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="AC51" s="1"/>
       <c r="AD51" s="1"/>
@@ -8446,7 +8620,7 @@
       <c r="AG51" s="1"/>
       <c r="AH51" s="1"/>
     </row>
-    <row r="52" spans="1:34" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:34" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>67</v>
       </c>
@@ -8457,19 +8631,19 @@
         <v>2</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="E52" s="1">
         <v>40</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G52" s="20" t="s">
         <v>77</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>628</v>
+        <v>605</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>36</v>
@@ -8496,33 +8670,33 @@
         <v>57</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="R52" s="1"/>
       <c r="S52" s="33" t="s">
-        <v>637</v>
+        <v>614</v>
       </c>
       <c r="T52" s="1" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="U52" s="1"/>
       <c r="V52" s="1"/>
       <c r="W52" s="8" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="X52" s="8"/>
       <c r="Y52" s="1" t="s">
-        <v>612</v>
+        <v>594</v>
       </c>
       <c r="Z52" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA52" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
         <v>A2-2-40</v>
       </c>
       <c r="AB52" s="1" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="AC52" s="1"/>
       <c r="AD52" s="1"/>
@@ -8531,7 +8705,7 @@
       <c r="AG52" s="1"/>
       <c r="AH52" s="1"/>
     </row>
-    <row r="53" spans="1:34" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:34" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>67</v>
       </c>
@@ -8542,19 +8716,19 @@
         <v>2</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="E53" s="1">
         <v>41</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="G53" s="20" t="s">
         <v>82</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>72</v>
@@ -8599,7 +8773,7 @@
         <v>A2-2-41</v>
       </c>
       <c r="AB53" s="1" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="AC53" s="1"/>
       <c r="AD53" s="1"/>
@@ -8608,7 +8782,7 @@
       <c r="AG53" s="1"/>
       <c r="AH53" s="1"/>
     </row>
-    <row r="54" spans="1:34" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:34" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>67</v>
       </c>
@@ -8619,7 +8793,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="E54" s="1">
         <v>42</v>
@@ -8631,7 +8805,7 @@
         <v>77</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>36</v>
@@ -8676,7 +8850,7 @@
         <v>A2-2-42</v>
       </c>
       <c r="AB54" s="1" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="AC54" s="1"/>
       <c r="AD54" s="1"/>
@@ -8685,7 +8859,7 @@
       <c r="AG54" s="1"/>
       <c r="AH54" s="1"/>
     </row>
-    <row r="55" spans="1:34" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:34" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>67</v>
       </c>
@@ -8696,19 +8870,19 @@
         <v>2</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="E55" s="1">
         <v>43</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G55" s="20" t="s">
         <v>82</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>72</v>
@@ -8753,7 +8927,7 @@
         <v>A2-2-43</v>
       </c>
       <c r="AB55" s="1" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="AC55" s="1"/>
       <c r="AD55" s="1"/>
@@ -8762,7 +8936,7 @@
       <c r="AG55" s="1"/>
       <c r="AH55" s="1"/>
     </row>
-    <row r="56" spans="1:34" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:34" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>67</v>
       </c>
@@ -8773,7 +8947,7 @@
         <v>2</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="E56" s="1">
         <v>44</v>
@@ -8785,7 +8959,7 @@
         <v>77</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>36</v>
@@ -8830,7 +9004,7 @@
         <v>A2-2-44</v>
       </c>
       <c r="AB56" s="1" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="AC56" s="1"/>
       <c r="AD56" s="1"/>
@@ -8839,7 +9013,7 @@
       <c r="AG56" s="1"/>
       <c r="AH56" s="1"/>
     </row>
-    <row r="57" spans="1:34" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:34" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>67</v>
       </c>
@@ -8850,19 +9024,19 @@
         <v>2</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="E57" s="1">
         <v>45</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G57" s="20" t="s">
         <v>82</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>72</v>
@@ -8900,14 +9074,18 @@
       <c r="V57" s="1"/>
       <c r="W57" s="9"/>
       <c r="X57" s="9"/>
-      <c r="Y57" s="1"/>
-      <c r="Z57" s="1"/>
+      <c r="Y57" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="Z57" s="1" t="s">
+        <v>506</v>
+      </c>
       <c r="AA57" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
         <v>A2-2-45</v>
       </c>
       <c r="AB57" s="1" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="AC57" s="1"/>
       <c r="AD57" s="1"/>
@@ -8916,7 +9094,7 @@
       <c r="AG57" s="1"/>
       <c r="AH57" s="1"/>
     </row>
-    <row r="58" spans="1:34" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:34" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>67</v>
       </c>
@@ -8927,7 +9105,7 @@
         <v>2</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="E58" s="1">
         <v>46</v>
@@ -8939,7 +9117,7 @@
         <v>77</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>36</v>
@@ -8977,14 +9155,18 @@
       <c r="V58" s="1"/>
       <c r="W58" s="9"/>
       <c r="X58" s="9"/>
-      <c r="Y58" s="1"/>
-      <c r="Z58" s="1"/>
+      <c r="Y58" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="Z58" s="1" t="s">
+        <v>506</v>
+      </c>
       <c r="AA58" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
         <v>A2-2-46</v>
       </c>
       <c r="AB58" s="1" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="AC58" s="1"/>
       <c r="AD58" s="1"/>
@@ -8993,7 +9175,7 @@
       <c r="AG58" s="1"/>
       <c r="AH58" s="1"/>
     </row>
-    <row r="59" spans="1:34" ht="69" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:34" ht="69" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>67</v>
       </c>
@@ -9003,26 +9185,26 @@
       <c r="C59" s="20">
         <v>3</v>
       </c>
-      <c r="D59" s="45" t="s">
-        <v>167</v>
+      <c r="D59" s="42" t="s">
+        <v>160</v>
       </c>
       <c r="E59" s="20">
         <v>1</v>
       </c>
       <c r="F59" s="20" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G59" s="20" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="H59" s="20" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="K59" s="3">
         <v>2020</v>
@@ -9053,14 +9235,14 @@
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
       <c r="W59" s="8" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="X59" s="8"/>
       <c r="Y59" s="38" t="s">
-        <v>613</v>
+        <v>595</v>
       </c>
       <c r="Z59" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA59" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -9074,36 +9256,36 @@
       <c r="AG59" s="1"/>
       <c r="AH59" s="1"/>
     </row>
-    <row r="60" spans="1:34" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:34" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C60" s="1">
         <v>1</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E60" s="1">
         <v>1</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="K60" s="22">
         <v>2020</v>
@@ -9129,24 +9311,24 @@
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
       <c r="T60" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
       <c r="W60" s="9"/>
       <c r="X60" s="9"/>
       <c r="Y60" s="10" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="Z60" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA60" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
         <v>A3-1-1</v>
       </c>
       <c r="AB60" s="1" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="AC60" s="1"/>
       <c r="AD60" s="1"/>
@@ -9155,36 +9337,36 @@
       <c r="AG60" s="1"/>
       <c r="AH60" s="1"/>
     </row>
-    <row r="61" spans="1:34" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:34" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C61" s="1">
         <v>1</v>
       </c>
       <c r="D61" s="38" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E61" s="1">
         <v>1</v>
       </c>
       <c r="F61" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="G61" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="G61" s="20" t="s">
-        <v>183</v>
-      </c>
       <c r="H61" s="20" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="K61" s="22">
         <v>2020</v>
@@ -9199,7 +9381,7 @@
         <v>27</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P61" s="1" t="s">
         <v>29</v>
@@ -9209,27 +9391,27 @@
       </c>
       <c r="R61" s="1"/>
       <c r="S61" s="30" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="T61" s="38" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="U61" s="1"/>
       <c r="V61" s="1"/>
       <c r="W61" s="9"/>
       <c r="X61" s="9"/>
       <c r="Y61" s="41" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="Z61" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA61" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
         <v>A3-1-1</v>
       </c>
       <c r="AB61" s="1" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="AC61" s="1"/>
       <c r="AD61" s="1"/>
@@ -9238,34 +9420,34 @@
       <c r="AG61" s="1"/>
       <c r="AH61" s="1"/>
     </row>
-    <row r="62" spans="1:34" ht="163.19999999999999" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:34" ht="204" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C62" s="1">
         <v>2</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1" t="s">
         <v>72</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="K62" s="21">
         <v>2021</v>
@@ -9291,26 +9473,26 @@
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
       <c r="T62" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="U62" s="1"/>
       <c r="V62" s="1"/>
       <c r="W62" s="8" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="X62" s="8"/>
       <c r="Y62" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="Z62" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA62" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
         <v>A3-2-1</v>
       </c>
       <c r="AB62" s="1" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="AC62" s="1"/>
       <c r="AD62" s="1"/>
@@ -9319,18 +9501,18 @@
       <c r="AG62" s="1"/>
       <c r="AH62" s="1"/>
     </row>
-    <row r="63" spans="1:34" ht="240" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:34" ht="240" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C63" s="1">
         <v>2</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E63" s="1">
         <v>2</v>
@@ -9339,14 +9521,14 @@
         <v>111</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="K63" s="21">
         <v>2021</v>
@@ -9372,26 +9554,26 @@
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
       <c r="T63" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="U63" s="1"/>
       <c r="V63" s="1"/>
       <c r="W63" s="10" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="X63" s="10"/>
       <c r="Y63" s="1" t="s">
-        <v>614</v>
+        <v>596</v>
       </c>
       <c r="Z63" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA63" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
         <v>A3-2-2</v>
       </c>
       <c r="AB63" s="1" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="AC63" s="1"/>
       <c r="AD63" s="1"/>
@@ -9400,34 +9582,34 @@
       <c r="AG63" s="1"/>
       <c r="AH63" s="1"/>
     </row>
-    <row r="64" spans="1:34" ht="69" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:34" ht="69" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C64" s="1">
         <v>3</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E64" s="1">
         <v>1</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1" t="s">
         <v>72</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="K64" s="3">
         <v>2025</v>
@@ -9453,7 +9635,7 @@
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
       <c r="T64" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="U64" s="1"/>
       <c r="V64" s="1"/>
@@ -9473,34 +9655,34 @@
       <c r="AG64" s="1"/>
       <c r="AH64" s="1"/>
     </row>
-    <row r="65" spans="1:34" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:34" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C65" s="1">
         <v>3</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E65" s="1">
         <v>2</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="K65" s="3">
         <v>2025</v>
@@ -9526,7 +9708,7 @@
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
       <c r="T65" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="U65" s="1"/>
       <c r="V65" s="1"/>
@@ -9546,34 +9728,34 @@
       <c r="AG65" s="1"/>
       <c r="AH65" s="1"/>
     </row>
-    <row r="66" spans="1:34" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:34" ht="41.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C66" s="1">
         <v>1</v>
       </c>
       <c r="D66" s="38" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E66" s="1">
         <v>1</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="G66" s="20" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="H66" s="20"/>
       <c r="I66" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="K66" s="3">
         <v>2020</v>
@@ -9604,12 +9786,12 @@
       <c r="U66" s="1"/>
       <c r="V66" s="1"/>
       <c r="W66" s="8" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="X66" s="8"/>
       <c r="Y66" s="38"/>
       <c r="Z66" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA66" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -9623,36 +9805,36 @@
       <c r="AG66" s="1"/>
       <c r="AH66" s="1"/>
     </row>
-    <row r="67" spans="1:34" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:34" ht="71.400000000000006" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C67" s="1">
         <v>2</v>
       </c>
       <c r="D67" s="38" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E67" s="1">
         <v>1</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G67" s="20" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="H67" s="20" t="s">
-        <v>658</v>
+        <v>635</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="K67" s="3">
         <v>2020</v>
@@ -9683,14 +9865,14 @@
       <c r="U67" s="1"/>
       <c r="V67" s="1"/>
       <c r="W67" s="8" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="X67" s="8"/>
       <c r="Y67" s="38" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="Z67" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA67" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -9704,36 +9886,36 @@
       <c r="AG67" s="1"/>
       <c r="AH67" s="1"/>
     </row>
-    <row r="68" spans="1:34" ht="69" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:34" ht="69" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C68" s="1">
         <v>2</v>
       </c>
       <c r="D68" s="38" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E68" s="1">
         <v>2</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>658</v>
+        <v>635</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="K68" s="3">
         <v>2020</v>
@@ -9748,7 +9930,7 @@
         <v>27</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P68" s="1" t="s">
         <v>57</v>
@@ -9758,7 +9940,7 @@
       </c>
       <c r="R68" s="1"/>
       <c r="S68" s="30" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="T68" s="38" t="s">
         <v>58</v>
@@ -9768,10 +9950,10 @@
       <c r="W68" s="8"/>
       <c r="X68" s="8"/>
       <c r="Y68" s="38" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="Z68" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA68" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -9785,34 +9967,34 @@
       <c r="AG68" s="1"/>
       <c r="AH68" s="1"/>
     </row>
-    <row r="69" spans="1:34" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:34" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C69" s="1">
         <v>3</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E69" s="1">
         <v>1</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="K69" s="3">
         <v>2024</v>
@@ -9858,34 +10040,34 @@
       <c r="AG69" s="1"/>
       <c r="AH69" s="1"/>
     </row>
-    <row r="70" spans="1:34" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:34" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C70" s="1">
         <v>3</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E70" s="1">
         <v>2</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="K70" s="3">
         <v>2024</v>
@@ -9931,34 +10113,34 @@
       <c r="AG70" s="1"/>
       <c r="AH70" s="1"/>
     </row>
-    <row r="71" spans="1:34" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:34" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C71" s="1">
         <v>1</v>
       </c>
       <c r="D71" s="38" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="E71" s="1">
         <v>1</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="K71" s="3">
         <v>2020</v>
@@ -9973,7 +10155,7 @@
         <v>27</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P71" s="1" t="s">
         <v>57</v>
@@ -9983,7 +10165,7 @@
       </c>
       <c r="R71" s="1"/>
       <c r="S71" s="30" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="T71" s="38" t="s">
         <v>58</v>
@@ -9993,10 +10175,10 @@
       <c r="W71" s="9"/>
       <c r="X71" s="9"/>
       <c r="Y71" s="38" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="Z71" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA71" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -10010,34 +10192,34 @@
       <c r="AG71" s="1"/>
       <c r="AH71" s="1"/>
     </row>
-    <row r="72" spans="1:34" ht="69" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:34" ht="69" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C72" s="1">
         <v>1</v>
       </c>
       <c r="D72" s="38" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E72" s="1">
         <v>1</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="K72" s="3">
         <v>2020</v>
@@ -10052,7 +10234,7 @@
         <v>27</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P72" s="1" t="s">
         <v>57</v>
@@ -10062,7 +10244,7 @@
       </c>
       <c r="R72" s="1"/>
       <c r="S72" s="30" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="T72" s="38" t="s">
         <v>58</v>
@@ -10072,10 +10254,10 @@
       <c r="W72" s="9"/>
       <c r="X72" s="9"/>
       <c r="Y72" s="38" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="Z72" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA72" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -10089,34 +10271,34 @@
       <c r="AG72" s="1"/>
       <c r="AH72" s="1"/>
     </row>
-    <row r="73" spans="1:34" ht="69" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:34" ht="69" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C73" s="1">
         <v>2</v>
       </c>
       <c r="D73" s="38" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="E73" s="1">
         <v>1</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="K73" s="3">
         <v>2020</v>
@@ -10131,7 +10313,7 @@
         <v>27</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P73" s="1" t="s">
         <v>57</v>
@@ -10141,7 +10323,7 @@
       </c>
       <c r="R73" s="1"/>
       <c r="S73" s="30" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="T73" s="38" t="s">
         <v>58</v>
@@ -10151,10 +10333,10 @@
       <c r="W73" s="9"/>
       <c r="X73" s="9"/>
       <c r="Y73" s="38" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="Z73" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA73" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -10168,34 +10350,34 @@
       <c r="AG73" s="1"/>
       <c r="AH73" s="1"/>
     </row>
-    <row r="74" spans="1:34" ht="69" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:34" ht="69" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C74" s="1">
         <v>1</v>
       </c>
       <c r="D74" s="38" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E74" s="1">
         <v>1</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="K74" s="3">
         <v>2020</v>
@@ -10210,18 +10392,18 @@
         <v>27</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P74" s="1" t="s">
         <v>57</v>
       </c>
       <c r="Q74" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
       <c r="T74" s="38" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="U74" s="1"/>
       <c r="V74" s="1"/>
@@ -10241,34 +10423,34 @@
       <c r="AG74" s="1"/>
       <c r="AH74" s="1"/>
     </row>
-    <row r="75" spans="1:34" ht="69" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:34" ht="69" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C75" s="1">
         <v>1</v>
       </c>
       <c r="D75" s="38" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E75" s="1">
         <v>1</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="K75" s="3">
         <v>2020</v>
@@ -10283,18 +10465,18 @@
         <v>27</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P75" s="1" t="s">
         <v>57</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
       <c r="T75" s="38" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="U75" s="1"/>
       <c r="V75" s="1"/>
@@ -10314,37 +10496,37 @@
       <c r="AG75" s="1"/>
       <c r="AH75" s="1"/>
     </row>
-    <row r="76" spans="1:34" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:34" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C76" s="1">
         <f>C74+1</f>
         <v>2</v>
       </c>
       <c r="D76" s="38" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E76" s="1">
         <v>1</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="K76" s="3">
         <v>2020</v>
@@ -10359,32 +10541,32 @@
         <v>27</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P76" s="1" t="s">
         <v>57</v>
       </c>
       <c r="Q76" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="R76" s="1"/>
       <c r="S76" s="1" t="s">
-        <v>638</v>
+        <v>615</v>
       </c>
       <c r="T76" s="38" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="U76" s="1"/>
       <c r="V76" s="1"/>
       <c r="W76" s="25" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="X76" s="25"/>
       <c r="Y76" s="38" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="Z76" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA76" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -10398,35 +10580,35 @@
       <c r="AG76" s="1"/>
       <c r="AH76" s="1"/>
     </row>
-    <row r="77" spans="1:34" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:34" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C77" s="1">
         <f t="shared" ref="C77:C81" si="0">C76+1</f>
         <v>3</v>
       </c>
       <c r="D77" s="38" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="E77" s="1">
         <v>1</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="K77" s="3">
         <v>2020</v>
@@ -10441,18 +10623,18 @@
         <v>27</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P77" s="1" t="s">
         <v>57</v>
       </c>
       <c r="Q77" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
       <c r="T77" s="38" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="U77" s="1"/>
       <c r="V77" s="1"/>
@@ -10472,35 +10654,35 @@
       <c r="AG77" s="1"/>
       <c r="AH77" s="1"/>
     </row>
-    <row r="78" spans="1:34" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:34" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C78" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D78" s="38" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="E78" s="1">
         <v>1</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="K78" s="3">
         <v>2020</v>
@@ -10515,18 +10697,18 @@
         <v>27</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P78" s="1" t="s">
         <v>57</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="R78" s="1"/>
       <c r="S78" s="1"/>
       <c r="T78" s="38" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="U78" s="1"/>
       <c r="V78" s="1"/>
@@ -10546,35 +10728,35 @@
       <c r="AG78" s="1"/>
       <c r="AH78" s="1"/>
     </row>
-    <row r="79" spans="1:34" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:34" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C79" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D79" s="38" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E79" s="1">
         <v>1</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="K79" s="3">
         <v>2020</v>
@@ -10589,18 +10771,18 @@
         <v>27</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P79" s="1" t="s">
         <v>57</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="R79" s="1"/>
       <c r="S79" s="1"/>
       <c r="T79" s="38" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="U79" s="1"/>
       <c r="V79" s="1"/>
@@ -10620,35 +10802,35 @@
       <c r="AG79" s="1"/>
       <c r="AH79" s="1"/>
     </row>
-    <row r="80" spans="1:34" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:34" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C80" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D80" s="38" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="E80" s="1">
         <v>1</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="K80" s="3">
         <v>2020</v>
@@ -10663,18 +10845,18 @@
         <v>27</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P80" s="1" t="s">
         <v>57</v>
       </c>
       <c r="Q80" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
       <c r="T80" s="38" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="U80" s="1"/>
       <c r="V80" s="1"/>
@@ -10694,35 +10876,35 @@
       <c r="AG80" s="1"/>
       <c r="AH80" s="1"/>
     </row>
-    <row r="81" spans="1:34" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:34" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C81" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D81" s="38" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="E81" s="1">
         <v>1</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="K81" s="3">
         <v>2020</v>
@@ -10737,18 +10919,18 @@
         <v>27</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P81" s="1" t="s">
         <v>57</v>
       </c>
       <c r="Q81" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="R81" s="1"/>
       <c r="S81" s="1"/>
       <c r="T81" s="38" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="U81" s="1"/>
       <c r="V81" s="1"/>
@@ -10768,34 +10950,34 @@
       <c r="AG81" s="1"/>
       <c r="AH81" s="1"/>
     </row>
-    <row r="82" spans="1:34" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:34" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C82" s="1">
         <v>7</v>
       </c>
       <c r="D82" s="38" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="E82" s="1">
         <v>2</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="K82" s="3">
         <v>2020</v>
@@ -10810,18 +10992,18 @@
         <v>27</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P82" s="1" t="s">
         <v>57</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="R82" s="1"/>
       <c r="S82" s="1"/>
       <c r="T82" s="38" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="U82" s="1"/>
       <c r="V82" s="1"/>
@@ -10841,34 +11023,34 @@
       <c r="AG82" s="1"/>
       <c r="AH82" s="1"/>
     </row>
-    <row r="83" spans="1:34" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:34" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C83" s="1">
         <v>8</v>
       </c>
       <c r="D83" s="38" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="E83" s="1">
         <v>1</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="K83" s="3">
         <v>2020</v>
@@ -10883,18 +11065,18 @@
         <v>27</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P83" s="1" t="s">
         <v>57</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="R83" s="1"/>
       <c r="S83" s="1"/>
       <c r="T83" s="38" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="U83" s="1"/>
       <c r="V83" s="1"/>
@@ -10914,34 +11096,36 @@
       <c r="AG83" s="1"/>
       <c r="AH83" s="1"/>
     </row>
-    <row r="84" spans="1:34" ht="69" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:34" ht="69" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C84" s="1">
         <v>1</v>
       </c>
       <c r="D84" s="38" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="E84" s="1">
         <v>1</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="H84" s="1"/>
+        <v>275</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>672</v>
+      </c>
       <c r="I84" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K84" s="3">
         <v>2020</v>
@@ -10967,23 +11151,25 @@
       <c r="R84" s="1"/>
       <c r="S84" s="1"/>
       <c r="T84" s="38" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="U84" s="1" t="s">
-        <v>691</v>
+        <v>667</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>629</v>
+        <v>606</v>
       </c>
       <c r="W84" s="9" t="s">
-        <v>551</v>
-      </c>
-      <c r="X84" s="9"/>
+        <v>537</v>
+      </c>
+      <c r="X84" s="9" t="s">
+        <v>679</v>
+      </c>
       <c r="Y84" s="38" t="s">
-        <v>615</v>
+        <v>597</v>
       </c>
       <c r="Z84" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA84" s="20" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -10997,31 +11183,33 @@
       <c r="AG84" s="1"/>
       <c r="AH84" s="1"/>
     </row>
-    <row r="85" spans="1:34" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:34" ht="151.19999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C85" s="1">
         <v>2</v>
       </c>
       <c r="D85" s="38" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="E85" s="1">
         <v>1</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="H85" s="1"/>
+        <v>279</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>673</v>
+      </c>
       <c r="I85" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>60</v>
@@ -11048,21 +11236,25 @@
         <v>30</v>
       </c>
       <c r="R85" s="1"/>
-      <c r="S85" s="1" t="s">
-        <v>629</v>
-      </c>
+      <c r="S85" s="1"/>
       <c r="T85" s="38" t="s">
-        <v>676</v>
-      </c>
-      <c r="U85" s="1"/>
-      <c r="V85" s="1"/>
+        <v>671</v>
+      </c>
+      <c r="U85" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="V85" s="1" t="s">
+        <v>606</v>
+      </c>
       <c r="W85" s="9"/>
-      <c r="X85" s="9"/>
+      <c r="X85" s="9" t="s">
+        <v>679</v>
+      </c>
       <c r="Y85" s="38" t="s">
-        <v>616</v>
+        <v>678</v>
       </c>
       <c r="Z85" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA85" s="20" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -11076,34 +11268,34 @@
       <c r="AG85" s="1"/>
       <c r="AH85" s="1"/>
     </row>
-    <row r="86" spans="1:34" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:34" ht="163.19999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C86" s="1">
         <v>3</v>
       </c>
-      <c r="D86" s="45" t="s">
-        <v>287</v>
+      <c r="D86" s="42" t="s">
+        <v>280</v>
       </c>
       <c r="E86" s="1">
         <v>1</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="K86" s="3">
         <v>2020</v>
@@ -11118,7 +11310,7 @@
         <v>27</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P86" s="1" t="s">
         <v>57</v>
@@ -11127,23 +11319,25 @@
         <v>30</v>
       </c>
       <c r="R86" s="1"/>
-      <c r="S86" s="1" t="s">
-        <v>629</v>
-      </c>
+      <c r="S86" s="1"/>
       <c r="T86" s="38" t="s">
-        <v>676</v>
-      </c>
-      <c r="U86" s="1"/>
-      <c r="V86" s="1"/>
+        <v>652</v>
+      </c>
+      <c r="U86" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="V86" s="1" t="s">
+        <v>606</v>
+      </c>
       <c r="W86" s="10" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="X86" s="10"/>
       <c r="Y86" s="38" t="s">
-        <v>617</v>
+        <v>680</v>
       </c>
       <c r="Z86" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA86" s="20" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -11157,34 +11351,36 @@
       <c r="AG86" s="1"/>
       <c r="AH86" s="1"/>
     </row>
-    <row r="87" spans="1:34" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:34" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C87" s="1">
         <v>4</v>
       </c>
       <c r="D87" s="38" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E87" s="1">
         <v>1</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>292</v>
+        <v>674</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="H87" s="1"/>
+        <v>285</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>675</v>
+      </c>
       <c r="I87" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="K87" s="3">
         <v>2022</v>
@@ -11199,7 +11395,7 @@
         <v>27</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P87" s="1" t="s">
         <v>57</v>
@@ -11208,23 +11404,25 @@
         <v>30</v>
       </c>
       <c r="R87" s="1"/>
-      <c r="S87" s="1" t="s">
-        <v>629</v>
-      </c>
+      <c r="S87" s="1"/>
       <c r="T87" s="38" t="s">
-        <v>676</v>
-      </c>
-      <c r="U87" s="1"/>
-      <c r="V87" s="1"/>
+        <v>652</v>
+      </c>
+      <c r="U87" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="V87" s="1" t="s">
+        <v>606</v>
+      </c>
       <c r="W87" s="11" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="X87" s="11"/>
       <c r="Y87" s="38" t="s">
-        <v>618</v>
+        <v>681</v>
       </c>
       <c r="Z87" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA87" s="20" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -11238,34 +11436,36 @@
       <c r="AG87" s="1"/>
       <c r="AH87" s="1"/>
     </row>
-    <row r="88" spans="1:34" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:34" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C88" s="1">
         <v>4</v>
       </c>
       <c r="D88" s="38" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E88" s="1">
         <v>2</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="H88" s="1"/>
+        <v>676</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>677</v>
+      </c>
       <c r="I88" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="K88" s="3">
         <v>2020</v>
@@ -11280,7 +11480,7 @@
         <v>27</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P88" s="1" t="s">
         <v>57</v>
@@ -11289,23 +11489,25 @@
         <v>30</v>
       </c>
       <c r="R88" s="1"/>
-      <c r="S88" s="1" t="s">
-        <v>629</v>
-      </c>
+      <c r="S88" s="1"/>
       <c r="T88" s="38" t="s">
-        <v>676</v>
-      </c>
-      <c r="U88" s="1"/>
-      <c r="V88" s="1"/>
+        <v>652</v>
+      </c>
+      <c r="U88" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="V88" s="1" t="s">
+        <v>606</v>
+      </c>
       <c r="W88" s="11" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="X88" s="11"/>
       <c r="Y88" s="38" t="s">
-        <v>619</v>
+        <v>682</v>
       </c>
       <c r="Z88" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA88" s="20" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -11319,34 +11521,34 @@
       <c r="AG88" s="1"/>
       <c r="AH88" s="1"/>
     </row>
-    <row r="89" spans="1:34" ht="69" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:34" ht="71.400000000000006" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C89" s="1">
         <v>1</v>
       </c>
       <c r="D89" s="38" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="E89" s="1">
         <v>1</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="K89" s="3">
         <v>2020</v>
@@ -11371,20 +11573,20 @@
       </c>
       <c r="R89" s="1"/>
       <c r="S89" s="31" t="s">
-        <v>639</v>
+        <v>616</v>
       </c>
       <c r="T89" s="38" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="U89" s="1"/>
       <c r="V89" s="1"/>
       <c r="W89" s="8" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="X89" s="8"/>
       <c r="Y89" s="38"/>
       <c r="Z89" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA89" s="20" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -11398,34 +11600,34 @@
       <c r="AG89" s="1"/>
       <c r="AH89" s="1"/>
     </row>
-    <row r="90" spans="1:34" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:34" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C90" s="1">
         <v>1</v>
       </c>
       <c r="D90" s="38" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="E90" s="1">
         <v>1</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="K90" s="3">
         <v>2020</v>
@@ -11450,20 +11652,20 @@
       </c>
       <c r="R90" s="1"/>
       <c r="S90" s="31" t="s">
-        <v>639</v>
+        <v>616</v>
       </c>
       <c r="T90" s="38" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="U90" s="1"/>
       <c r="V90" s="1"/>
       <c r="W90" s="8" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="X90" s="8"/>
       <c r="Y90" s="38"/>
       <c r="Z90" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA90" s="20" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -11477,34 +11679,34 @@
       <c r="AG90" s="1"/>
       <c r="AH90" s="1"/>
     </row>
-    <row r="91" spans="1:34" ht="207" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:34" ht="207" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="C91" s="1">
         <v>1</v>
       </c>
       <c r="D91" s="38" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="E91" s="1">
         <v>1</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="K91" s="3">
         <v>2020</v>
@@ -11529,20 +11731,20 @@
       </c>
       <c r="R91" s="1"/>
       <c r="S91" s="31" t="s">
-        <v>639</v>
+        <v>616</v>
       </c>
       <c r="T91" s="38" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="U91" s="1"/>
       <c r="V91" s="1"/>
       <c r="W91" s="9"/>
       <c r="X91" s="9"/>
       <c r="Y91" s="38" t="s">
-        <v>620</v>
+        <v>598</v>
       </c>
       <c r="Z91" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA91" s="20" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -11558,34 +11760,34 @@
     </row>
     <row r="92" spans="1:34" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="C92" s="1">
         <v>1</v>
       </c>
       <c r="D92" s="38" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="E92" s="1">
         <v>1</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="H92" s="26" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="K92" s="3">
         <v>2020</v>
@@ -11600,7 +11802,7 @@
         <v>27</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P92" s="1" t="s">
         <v>57</v>
@@ -11610,22 +11812,22 @@
       </c>
       <c r="R92" s="1"/>
       <c r="S92" s="1" t="s">
-        <v>640</v>
+        <v>617</v>
       </c>
       <c r="T92" s="38" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="U92" s="1"/>
       <c r="V92" s="1"/>
       <c r="W92" s="9" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="X92" s="9"/>
       <c r="Y92" s="38" t="s">
-        <v>621</v>
+        <v>599</v>
       </c>
       <c r="Z92" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA92" s="20" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -11641,32 +11843,32 @@
     </row>
     <row r="93" spans="1:34" ht="69" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="C93" s="1">
         <v>2</v>
       </c>
       <c r="D93" s="38" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="E93" s="1">
         <v>1</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="K93" s="3">
         <v>2020</v>
@@ -11681,7 +11883,7 @@
         <v>27</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P93" s="1" t="s">
         <v>57</v>
@@ -11691,22 +11893,22 @@
       </c>
       <c r="R93" s="1"/>
       <c r="S93" s="1" t="s">
-        <v>640</v>
+        <v>617</v>
       </c>
       <c r="T93" s="38" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="U93" s="1"/>
       <c r="V93" s="1"/>
       <c r="W93" s="9" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="X93" s="9"/>
-      <c r="Y93" s="38" t="s">
-        <v>529</v>
+      <c r="Y93" s="4" t="s">
+        <v>697</v>
       </c>
       <c r="Z93" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA93" s="20" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -11720,34 +11922,34 @@
       <c r="AG93" s="1"/>
       <c r="AH93" s="1"/>
     </row>
-    <row r="94" spans="1:34" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:34" ht="193.2" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="C94" s="1">
         <v>3</v>
       </c>
       <c r="D94" s="38" t="s">
-        <v>687</v>
+        <v>663</v>
       </c>
       <c r="E94" s="1">
         <v>1</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="G94" s="20" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="H94" s="20"/>
       <c r="I94" s="20" t="s">
         <v>36</v>
       </c>
       <c r="J94" s="20" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="K94" s="24">
         <v>2020</v>
@@ -11762,7 +11964,7 @@
         <v>27</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P94" s="1" t="s">
         <v>57</v>
@@ -11772,22 +11974,22 @@
       </c>
       <c r="R94" s="1"/>
       <c r="S94" s="1" t="s">
-        <v>640</v>
+        <v>617</v>
       </c>
       <c r="T94" s="38" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="U94" s="1"/>
       <c r="V94" s="1"/>
       <c r="W94" s="9" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="X94" s="9"/>
-      <c r="Y94" s="38" t="s">
-        <v>530</v>
+      <c r="Y94" s="4" t="s">
+        <v>698</v>
       </c>
       <c r="Z94" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA94" s="20" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -11803,32 +12005,32 @@
     </row>
     <row r="95" spans="1:34" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C95" s="1">
         <v>1</v>
       </c>
       <c r="D95" s="38" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="E95" s="1">
         <v>1</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="G95" s="20" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="H95" s="27"/>
       <c r="I95" s="20" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J95" s="20" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="K95" s="24">
         <v>2020</v>
@@ -11843,7 +12045,7 @@
         <v>27</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P95" s="1" t="s">
         <v>29</v>
@@ -11853,22 +12055,22 @@
       </c>
       <c r="R95" s="1"/>
       <c r="S95" s="1" t="s">
-        <v>640</v>
+        <v>617</v>
       </c>
       <c r="T95" s="38" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="U95" s="1"/>
       <c r="V95" s="1"/>
       <c r="W95" s="9" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="X95" s="9"/>
-      <c r="Y95" s="38" t="s">
-        <v>531</v>
+      <c r="Y95" s="4" t="s">
+        <v>520</v>
       </c>
       <c r="Z95" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA95" s="20" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -11884,32 +12086,32 @@
     </row>
     <row r="96" spans="1:34" ht="69" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C96" s="1">
         <v>2</v>
       </c>
       <c r="D96" s="38" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="E96" s="1">
         <v>1</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="G96" s="20" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="H96" s="20"/>
       <c r="I96" s="20" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J96" s="20" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="K96" s="24">
         <v>2020</v>
@@ -11924,7 +12126,7 @@
         <v>27</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P96" s="1" t="s">
         <v>29</v>
@@ -11934,20 +12136,22 @@
       </c>
       <c r="R96" s="1"/>
       <c r="S96" s="1" t="s">
-        <v>640</v>
+        <v>617</v>
       </c>
       <c r="T96" s="38" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="U96" s="1"/>
       <c r="V96" s="1"/>
       <c r="W96" s="9" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="X96" s="9"/>
-      <c r="Y96" s="38"/>
+      <c r="Y96" s="1" t="s">
+        <v>699</v>
+      </c>
       <c r="Z96" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA96" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -11963,32 +12167,32 @@
     </row>
     <row r="97" spans="1:34" ht="69" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C97" s="1">
         <v>3</v>
       </c>
       <c r="D97" s="38" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="E97" s="1">
         <v>1</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="G97" s="20" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="H97" s="20"/>
       <c r="I97" s="20" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J97" s="20" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="K97" s="24">
         <v>2020</v>
@@ -12003,7 +12207,7 @@
         <v>27</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P97" s="1" t="s">
         <v>29</v>
@@ -12013,20 +12217,22 @@
       </c>
       <c r="R97" s="1"/>
       <c r="S97" s="1" t="s">
-        <v>640</v>
+        <v>617</v>
       </c>
       <c r="T97" s="38" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="U97" s="1"/>
       <c r="V97" s="1"/>
       <c r="W97" s="9" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="X97" s="9"/>
-      <c r="Y97" s="38"/>
+      <c r="Y97" s="1" t="s">
+        <v>699</v>
+      </c>
       <c r="Z97" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA97" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -12042,32 +12248,32 @@
     </row>
     <row r="98" spans="1:34" ht="289.8" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C98" s="1">
         <v>4</v>
       </c>
       <c r="D98" s="38" t="s">
-        <v>688</v>
+        <v>664</v>
       </c>
       <c r="E98" s="1">
         <v>1</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="H98" s="1"/>
       <c r="I98" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="K98" s="3">
         <v>2020</v>
@@ -12082,7 +12288,7 @@
         <v>27</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P98" s="1" t="s">
         <v>57</v>
@@ -12092,20 +12298,22 @@
       </c>
       <c r="R98" s="1"/>
       <c r="S98" s="1" t="s">
-        <v>640</v>
+        <v>617</v>
       </c>
       <c r="T98" s="38" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="U98" s="1"/>
       <c r="V98" s="1"/>
       <c r="W98" s="9" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="X98" s="9"/>
-      <c r="Y98" s="42"/>
+      <c r="Y98" s="1" t="s">
+        <v>700</v>
+      </c>
       <c r="Z98" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA98" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -12121,32 +12329,32 @@
     </row>
     <row r="99" spans="1:34" ht="69" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C99" s="1">
         <v>5</v>
       </c>
       <c r="D99" s="38" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="E99" s="1">
         <v>1</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="H99" s="1"/>
       <c r="I99" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="K99" s="3">
         <v>2020</v>
@@ -12161,7 +12369,7 @@
         <v>27</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P99" s="1" t="s">
         <v>29</v>
@@ -12171,22 +12379,22 @@
       </c>
       <c r="R99" s="1"/>
       <c r="S99" s="1" t="s">
-        <v>640</v>
+        <v>617</v>
       </c>
       <c r="T99" s="38" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="U99" s="1"/>
       <c r="V99" s="1"/>
       <c r="W99" s="9" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="X99" s="9"/>
-      <c r="Y99" s="43" t="s">
-        <v>533</v>
+      <c r="Y99" s="4" t="s">
+        <v>701</v>
       </c>
       <c r="Z99" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA99" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -12200,34 +12408,34 @@
       <c r="AG99" s="1"/>
       <c r="AH99" s="1"/>
     </row>
-    <row r="100" spans="1:34" ht="69" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:34" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="C100" s="1">
         <v>1</v>
       </c>
       <c r="D100" s="38" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="E100" s="1">
         <v>1</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="H100" s="4"/>
       <c r="I100" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="K100" s="3">
         <v>2020</v>
@@ -12242,7 +12450,7 @@
         <v>27</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P100" s="1" t="s">
         <v>29</v>
@@ -12252,22 +12460,22 @@
       </c>
       <c r="R100" s="1"/>
       <c r="S100" s="1" t="s">
-        <v>640</v>
+        <v>617</v>
       </c>
       <c r="T100" s="38" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="U100" s="1"/>
       <c r="V100" s="1"/>
       <c r="W100" s="9" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="X100" s="9"/>
-      <c r="Y100" s="44" t="s">
-        <v>532</v>
+      <c r="Y100" s="26" t="s">
+        <v>702</v>
       </c>
       <c r="Z100" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA100" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -12283,32 +12491,32 @@
     </row>
     <row r="101" spans="1:34" ht="234.6" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="C101" s="1">
         <v>2</v>
       </c>
       <c r="D101" s="38" t="s">
-        <v>689</v>
+        <v>665</v>
       </c>
       <c r="E101" s="1">
         <v>1</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H101" s="1"/>
       <c r="I101" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="K101" s="3">
         <v>2020</v>
@@ -12323,7 +12531,7 @@
         <v>27</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P101" s="1" t="s">
         <v>57</v>
@@ -12333,20 +12541,22 @@
       </c>
       <c r="R101" s="1"/>
       <c r="S101" s="1" t="s">
-        <v>640</v>
+        <v>617</v>
       </c>
       <c r="T101" s="38" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="U101" s="1"/>
       <c r="V101" s="1"/>
       <c r="W101" s="9" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="X101" s="9"/>
-      <c r="Y101" s="44"/>
+      <c r="Y101" s="26" t="s">
+        <v>703</v>
+      </c>
       <c r="Z101" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA101" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -12360,31 +12570,31 @@
       <c r="AG101" s="1"/>
       <c r="AH101" s="1"/>
     </row>
-    <row r="102" spans="1:34" ht="69" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:34" ht="69" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C102" s="1">
         <v>1</v>
       </c>
       <c r="D102" s="38" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="E102" s="1">
         <v>1</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="H102" s="1"/>
       <c r="I102" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>60</v>
@@ -12402,7 +12612,7 @@
         <v>27</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P102" s="1" t="s">
         <v>57</v>
@@ -12412,10 +12622,10 @@
       </c>
       <c r="R102" s="1"/>
       <c r="S102" s="1" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="T102" s="38" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="U102" s="1"/>
       <c r="V102" s="1"/>
@@ -12435,31 +12645,31 @@
       <c r="AG102" s="1"/>
       <c r="AH102" s="1"/>
     </row>
-    <row r="103" spans="1:34" ht="69" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:34" ht="69" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="C103" s="1">
         <v>1</v>
       </c>
       <c r="D103" s="38" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="E103" s="1">
         <v>1</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="H103" s="1"/>
       <c r="I103" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>60</v>
@@ -12477,7 +12687,7 @@
         <v>27</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P103" s="1" t="s">
         <v>57</v>
@@ -12487,17 +12697,17 @@
       </c>
       <c r="R103" s="1"/>
       <c r="S103" s="1" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="T103" s="38" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="U103" s="1"/>
       <c r="V103" s="1"/>
       <c r="W103" s="10"/>
       <c r="X103" s="10"/>
       <c r="Y103" s="38" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="Z103" s="1"/>
       <c r="AA103" s="1" t="str">
@@ -12512,31 +12722,31 @@
       <c r="AG103" s="1"/>
       <c r="AH103" s="1"/>
     </row>
-    <row r="104" spans="1:34" ht="69" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:34" ht="69" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="C104" s="1">
         <v>2</v>
       </c>
       <c r="D104" s="38" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="E104" s="1">
         <v>1</v>
       </c>
       <c r="F104" s="20" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="G104" s="20" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="H104" s="20"/>
       <c r="I104" s="20" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J104" s="20" t="s">
         <v>60</v>
@@ -12554,7 +12764,7 @@
         <v>27</v>
       </c>
       <c r="O104" s="20" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P104" s="20" t="s">
         <v>29</v>
@@ -12564,17 +12774,17 @@
       </c>
       <c r="R104" s="1"/>
       <c r="S104" s="1" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="T104" s="38" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="U104" s="1"/>
       <c r="V104" s="1"/>
       <c r="W104" s="10"/>
       <c r="X104" s="10"/>
       <c r="Y104" s="38" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="Z104" s="1"/>
       <c r="AA104" s="1" t="str">
@@ -12589,31 +12799,31 @@
       <c r="AG104" s="1"/>
       <c r="AH104" s="1"/>
     </row>
-    <row r="105" spans="1:34" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="C105" s="1">
         <v>1</v>
       </c>
       <c r="D105" s="38" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="E105" s="1">
         <v>1</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="H105" s="1"/>
       <c r="I105" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>60</v>
@@ -12642,16 +12852,16 @@
       <c r="R105" s="1"/>
       <c r="S105" s="1"/>
       <c r="T105" s="38" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="U105" s="1"/>
       <c r="V105" s="1"/>
       <c r="W105" s="8" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="X105" s="8"/>
       <c r="Y105" s="38" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="Z105" s="1"/>
       <c r="AA105" s="1" t="str">
@@ -12668,29 +12878,29 @@
     </row>
     <row r="106" spans="1:34" ht="69" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="C106" s="1">
         <v>2</v>
       </c>
       <c r="D106" s="38" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="E106" s="1">
         <v>1</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="H106" s="1"/>
       <c r="I106" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>60</v>
@@ -12708,7 +12918,7 @@
         <v>27</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P106" s="1" t="s">
         <v>29</v>
@@ -12719,15 +12929,15 @@
       <c r="R106" s="1"/>
       <c r="S106" s="1"/>
       <c r="T106" s="38" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="U106" s="1"/>
       <c r="V106" s="1"/>
       <c r="W106" s="8" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="X106" s="8"/>
-      <c r="Y106" s="45"/>
+      <c r="Y106" s="42"/>
       <c r="Z106" s="1"/>
       <c r="AA106" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -12741,34 +12951,34 @@
       <c r="AG106" s="1"/>
       <c r="AH106" s="1"/>
     </row>
-    <row r="107" spans="1:34" ht="193.2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:34" ht="193.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="C107" s="1">
         <v>1</v>
       </c>
       <c r="D107" s="38" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="E107" s="1">
         <v>1</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="H107" s="1"/>
       <c r="I107" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="K107" s="3">
         <v>2020</v>
@@ -12783,7 +12993,7 @@
         <v>27</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P107" s="1" t="s">
         <v>29</v>
@@ -12793,24 +13003,24 @@
       </c>
       <c r="R107" s="1"/>
       <c r="S107" s="30" t="s">
-        <v>654</v>
+        <v>631</v>
       </c>
       <c r="T107" s="38" t="s">
-        <v>645</v>
+        <v>622</v>
       </c>
       <c r="U107" s="1" t="s">
-        <v>646</v>
+        <v>623</v>
       </c>
       <c r="V107" s="30" t="s">
-        <v>632</v>
+        <v>609</v>
       </c>
       <c r="W107" s="9"/>
       <c r="X107" s="9"/>
-      <c r="Y107" s="45" t="s">
-        <v>692</v>
+      <c r="Y107" s="42" t="s">
+        <v>668</v>
       </c>
       <c r="Z107" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA107" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -12824,31 +13034,31 @@
       <c r="AG107" s="1"/>
       <c r="AH107" s="1"/>
     </row>
-    <row r="108" spans="1:34" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:34" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="C108" s="1">
         <v>1</v>
       </c>
       <c r="D108" s="38" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="E108" s="1">
         <v>2</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="H108" s="1"/>
       <c r="I108" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>60</v>
@@ -12866,7 +13076,7 @@
         <v>27</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P108" s="1" t="s">
         <v>29</v>
@@ -12876,20 +13086,20 @@
       </c>
       <c r="R108" s="1"/>
       <c r="S108" s="30" t="s">
-        <v>654</v>
+        <v>631</v>
       </c>
       <c r="T108" s="38" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="U108" s="1"/>
       <c r="V108" s="1"/>
       <c r="W108" s="9"/>
       <c r="X108" s="9"/>
       <c r="Y108" s="38" t="s">
-        <v>655</v>
+        <v>632</v>
       </c>
       <c r="Z108" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA108" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -12903,31 +13113,31 @@
       <c r="AG108" s="1"/>
       <c r="AH108" s="1"/>
     </row>
-    <row r="109" spans="1:34" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:34" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="C109" s="1">
         <v>1</v>
       </c>
       <c r="D109" s="38" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="E109" s="1">
         <v>3</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="H109" s="1"/>
       <c r="I109" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>60</v>
@@ -12945,7 +13155,7 @@
         <v>27</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P109" s="1" t="s">
         <v>29</v>
@@ -12955,20 +13165,20 @@
       </c>
       <c r="R109" s="1"/>
       <c r="S109" s="30" t="s">
-        <v>654</v>
+        <v>631</v>
       </c>
       <c r="T109" s="38" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="U109" s="1"/>
       <c r="V109" s="1"/>
       <c r="W109" s="9"/>
       <c r="X109" s="9"/>
       <c r="Y109" s="38" t="s">
-        <v>655</v>
+        <v>632</v>
       </c>
       <c r="Z109" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA109" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -12982,31 +13192,31 @@
       <c r="AG109" s="1"/>
       <c r="AH109" s="1"/>
     </row>
-    <row r="110" spans="1:34" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:34" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="C110" s="1">
         <v>1</v>
       </c>
       <c r="D110" s="38" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="E110" s="1">
         <v>4</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="H110" s="1"/>
       <c r="I110" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>60</v>
@@ -13024,7 +13234,7 @@
         <v>27</v>
       </c>
       <c r="O110" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P110" s="1" t="s">
         <v>29</v>
@@ -13034,20 +13244,20 @@
       </c>
       <c r="R110" s="1"/>
       <c r="S110" s="30" t="s">
-        <v>654</v>
+        <v>631</v>
       </c>
       <c r="T110" s="38" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="U110" s="1"/>
       <c r="V110" s="1"/>
       <c r="W110" s="9"/>
       <c r="X110" s="9"/>
       <c r="Y110" s="38" t="s">
-        <v>655</v>
+        <v>632</v>
       </c>
       <c r="Z110" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA110" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -13061,31 +13271,31 @@
       <c r="AG110" s="1"/>
       <c r="AH110" s="1"/>
     </row>
-    <row r="111" spans="1:34" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:34" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="20" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="C111" s="20">
         <v>2</v>
       </c>
-      <c r="D111" s="45" t="s">
-        <v>387</v>
+      <c r="D111" s="42" t="s">
+        <v>378</v>
       </c>
       <c r="E111" s="20">
         <v>1</v>
       </c>
       <c r="F111" s="20" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="H111" s="1"/>
       <c r="I111" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>60</v>
@@ -13103,7 +13313,7 @@
         <v>27</v>
       </c>
       <c r="O111" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P111" s="1" t="s">
         <v>29</v>
@@ -13113,20 +13323,20 @@
       </c>
       <c r="R111" s="1"/>
       <c r="S111" s="30" t="s">
-        <v>654</v>
+        <v>631</v>
       </c>
       <c r="T111" s="38" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="U111" s="1"/>
       <c r="V111" s="1"/>
       <c r="W111" s="9"/>
       <c r="X111" s="9"/>
       <c r="Y111" s="38" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="Z111" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA111" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -13140,31 +13350,31 @@
       <c r="AG111" s="1"/>
       <c r="AH111" s="1"/>
     </row>
-    <row r="112" spans="1:34" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:34" ht="55.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="20" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="C112" s="20">
         <v>3</v>
       </c>
-      <c r="D112" s="45" t="s">
-        <v>390</v>
+      <c r="D112" s="42" t="s">
+        <v>381</v>
       </c>
       <c r="E112" s="20">
         <v>1</v>
       </c>
       <c r="F112" s="20" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="H112" s="1"/>
       <c r="I112" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>60</v>
@@ -13182,7 +13392,7 @@
         <v>27</v>
       </c>
       <c r="O112" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P112" s="1" t="s">
         <v>29</v>
@@ -13192,20 +13402,20 @@
       </c>
       <c r="R112" s="1"/>
       <c r="S112" s="30" t="s">
-        <v>654</v>
+        <v>631</v>
       </c>
       <c r="T112" s="38" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="U112" s="1"/>
       <c r="V112" s="1"/>
       <c r="W112" s="9"/>
       <c r="X112" s="9"/>
       <c r="Y112" s="38" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="Z112" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA112" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -13219,31 +13429,31 @@
       <c r="AG112" s="1"/>
       <c r="AH112" s="1"/>
     </row>
-    <row r="113" spans="1:34" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:34" ht="151.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C113" s="1">
         <v>1</v>
       </c>
       <c r="D113" s="38" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="E113" s="1">
         <v>1</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="H113" s="1"/>
       <c r="I113" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>60</v>
@@ -13261,7 +13471,7 @@
         <v>27</v>
       </c>
       <c r="O113" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P113" s="1" t="s">
         <v>29</v>
@@ -13271,24 +13481,24 @@
       </c>
       <c r="R113" s="1"/>
       <c r="S113" s="30" t="s">
-        <v>654</v>
+        <v>631</v>
       </c>
       <c r="T113" s="38" t="s">
-        <v>645</v>
+        <v>622</v>
       </c>
       <c r="U113" s="1" t="s">
-        <v>646</v>
+        <v>623</v>
       </c>
       <c r="V113" s="30" t="s">
-        <v>632</v>
+        <v>609</v>
       </c>
       <c r="W113" s="30"/>
       <c r="X113" s="9"/>
       <c r="Y113" s="38" t="s">
-        <v>656</v>
+        <v>633</v>
       </c>
       <c r="Z113" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA113" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -13302,31 +13512,31 @@
       <c r="AG113" s="1"/>
       <c r="AH113" s="1"/>
     </row>
-    <row r="114" spans="1:34" ht="138" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:34" ht="138" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C114" s="1">
         <v>2</v>
       </c>
       <c r="D114" s="38" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="E114" s="1">
         <v>1</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="H114" s="1"/>
       <c r="I114" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>60</v>
@@ -13344,7 +13554,7 @@
         <v>27</v>
       </c>
       <c r="O114" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P114" s="1" t="s">
         <v>29</v>
@@ -13354,20 +13564,20 @@
       </c>
       <c r="R114" s="1"/>
       <c r="S114" s="30" t="s">
-        <v>632</v>
+        <v>609</v>
       </c>
       <c r="T114" s="38" t="s">
-        <v>677</v>
+        <v>653</v>
       </c>
       <c r="U114" s="30"/>
       <c r="V114" s="30"/>
       <c r="W114" s="9"/>
       <c r="X114" s="9"/>
       <c r="Y114" s="38" t="s">
-        <v>622</v>
+        <v>600</v>
       </c>
       <c r="Z114" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA114" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -13381,31 +13591,31 @@
       <c r="AG114" s="1"/>
       <c r="AH114" s="1"/>
     </row>
-    <row r="115" spans="1:34" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:34" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C115" s="1">
         <v>3</v>
       </c>
       <c r="D115" s="38" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="E115" s="1">
         <v>1</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="H115" s="1"/>
       <c r="I115" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>60</v>
@@ -13423,7 +13633,7 @@
         <v>27</v>
       </c>
       <c r="O115" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P115" s="1" t="s">
         <v>29</v>
@@ -13433,10 +13643,10 @@
       </c>
       <c r="R115" s="1"/>
       <c r="S115" s="30" t="s">
-        <v>654</v>
+        <v>631</v>
       </c>
       <c r="T115" s="38" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="U115" s="1"/>
       <c r="V115" s="1"/>
@@ -13456,31 +13666,31 @@
       <c r="AG115" s="1"/>
       <c r="AH115" s="1"/>
     </row>
-    <row r="116" spans="1:34" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:34" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C116" s="1">
         <v>4</v>
       </c>
       <c r="D116" s="38" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="E116" s="1">
         <v>1</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="H116" s="1"/>
       <c r="I116" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>60</v>
@@ -13498,7 +13708,7 @@
         <v>27</v>
       </c>
       <c r="O116" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P116" s="1" t="s">
         <v>29</v>
@@ -13509,7 +13719,7 @@
       <c r="R116" s="1"/>
       <c r="S116" s="1"/>
       <c r="T116" s="38" t="s">
-        <v>677</v>
+        <v>653</v>
       </c>
       <c r="U116" s="1"/>
       <c r="V116" s="1"/>
@@ -13529,33 +13739,33 @@
       <c r="AG116" s="1"/>
       <c r="AH116" s="1"/>
     </row>
-    <row r="117" spans="1:34" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:34" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C117" s="1">
         <v>5</v>
       </c>
       <c r="D117" s="38" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E117" s="1">
         <v>1</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>648</v>
+        <v>625</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>649</v>
+        <v>626</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>60</v>
@@ -13573,7 +13783,7 @@
         <v>27</v>
       </c>
       <c r="O117" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P117" s="1" t="s">
         <v>29</v>
@@ -13583,17 +13793,17 @@
       </c>
       <c r="R117" s="1"/>
       <c r="S117" s="30" t="s">
+        <v>631</v>
+      </c>
+      <c r="T117" s="38" t="s">
         <v>654</v>
-      </c>
-      <c r="T117" s="38" t="s">
-        <v>678</v>
       </c>
       <c r="U117" s="1"/>
       <c r="V117" s="1"/>
       <c r="W117" s="9"/>
       <c r="X117" s="9"/>
       <c r="Y117" s="38" t="s">
-        <v>650</v>
+        <v>627</v>
       </c>
       <c r="Z117" s="1"/>
       <c r="AA117" s="1" t="str">
@@ -13608,31 +13818,31 @@
       <c r="AG117" s="1"/>
       <c r="AH117" s="1"/>
     </row>
-    <row r="118" spans="1:34" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:34" ht="97.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C118" s="1">
         <v>5</v>
       </c>
       <c r="D118" s="38" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E118" s="1">
         <v>2</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="H118" s="1"/>
       <c r="I118" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>60</v>
@@ -13650,7 +13860,7 @@
         <v>27</v>
       </c>
       <c r="O118" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P118" s="1" t="s">
         <v>29</v>
@@ -13660,17 +13870,17 @@
       </c>
       <c r="R118" s="1"/>
       <c r="S118" s="30" t="s">
+        <v>631</v>
+      </c>
+      <c r="T118" s="38" t="s">
         <v>654</v>
-      </c>
-      <c r="T118" s="38" t="s">
-        <v>678</v>
       </c>
       <c r="U118" s="1"/>
       <c r="V118" s="1"/>
       <c r="W118" s="9"/>
       <c r="X118" s="9"/>
       <c r="Y118" s="38" t="s">
-        <v>650</v>
+        <v>627</v>
       </c>
       <c r="Z118" s="1"/>
       <c r="AA118" s="1" t="str">
@@ -13685,31 +13895,31 @@
       <c r="AG118" s="1"/>
       <c r="AH118" s="1"/>
     </row>
-    <row r="119" spans="1:34" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:34" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C119" s="1">
         <v>1</v>
       </c>
       <c r="D119" s="38" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="E119" s="1">
         <v>1</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="H119" s="1"/>
       <c r="I119" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>60</v>
@@ -13727,7 +13937,7 @@
         <v>27</v>
       </c>
       <c r="O119" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P119" s="1" t="s">
         <v>29</v>
@@ -13737,17 +13947,17 @@
       </c>
       <c r="R119" s="1"/>
       <c r="S119" s="30" t="s">
-        <v>632</v>
+        <v>609</v>
       </c>
       <c r="T119" s="38" t="s">
-        <v>678</v>
+        <v>654</v>
       </c>
       <c r="U119" s="1"/>
       <c r="V119" s="1"/>
       <c r="W119" s="9"/>
       <c r="X119" s="9"/>
       <c r="Y119" s="38" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="Z119" s="1"/>
       <c r="AA119" s="1" t="str">
@@ -13762,31 +13972,31 @@
       <c r="AG119" s="1"/>
       <c r="AH119" s="1"/>
     </row>
-    <row r="120" spans="1:34" ht="68.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:34" ht="68.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="36" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="B120" s="37" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C120" s="37">
         <v>2</v>
       </c>
-      <c r="D120" s="46" t="s">
-        <v>413</v>
+      <c r="D120" s="43" t="s">
+        <v>404</v>
       </c>
       <c r="E120" s="37">
         <v>1</v>
       </c>
       <c r="F120" s="37" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="H120" s="37"/>
       <c r="I120" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>60</v>
@@ -13804,7 +14014,7 @@
         <v>27</v>
       </c>
       <c r="O120" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P120" s="1" t="s">
         <v>29</v>
@@ -13814,17 +14024,17 @@
       </c>
       <c r="R120" s="1"/>
       <c r="S120" s="30" t="s">
-        <v>632</v>
+        <v>609</v>
       </c>
       <c r="T120" s="38" t="s">
-        <v>678</v>
+        <v>654</v>
       </c>
       <c r="U120" s="1"/>
       <c r="V120" s="1"/>
       <c r="W120" s="9"/>
       <c r="X120" s="9"/>
       <c r="Y120" s="38" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="Z120" s="1"/>
       <c r="AA120" s="1" t="str">
@@ -13839,31 +14049,31 @@
       <c r="AG120" s="1"/>
       <c r="AH120" s="1"/>
     </row>
-    <row r="121" spans="1:34" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:34" ht="61.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="C121" s="1">
         <v>1</v>
       </c>
       <c r="D121" s="38" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="E121" s="1">
         <v>1</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="H121" s="1"/>
       <c r="I121" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>60</v>
@@ -13892,16 +14102,16 @@
       <c r="R121" s="1"/>
       <c r="S121" s="20"/>
       <c r="T121" s="38" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="U121" s="1"/>
       <c r="V121" s="1"/>
       <c r="W121" s="8" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="X121" s="8"/>
       <c r="Y121" s="38" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="Z121" s="1"/>
       <c r="AA121" s="1" t="str">
@@ -13916,27 +14126,27 @@
       <c r="AG121" s="1"/>
       <c r="AH121" s="1"/>
     </row>
-    <row r="122" spans="1:34" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:34" ht="96.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="C122" s="1">
         <v>2</v>
       </c>
       <c r="D122" s="38" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="E122" s="1">
         <v>1</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="H122" s="1"/>
       <c r="I122" s="1" t="s">
@@ -13969,16 +14179,16 @@
       <c r="R122" s="1"/>
       <c r="S122" s="20"/>
       <c r="T122" s="38" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="U122" s="1"/>
       <c r="V122" s="1"/>
       <c r="W122" s="8" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="X122" s="8"/>
       <c r="Y122" s="38" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="Z122" s="1"/>
       <c r="AA122" s="1" t="str">
@@ -13993,36 +14203,36 @@
       <c r="AG122" s="1"/>
       <c r="AH122" s="1"/>
     </row>
-    <row r="123" spans="1:34" ht="84" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:34" ht="84" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C123" s="1">
         <v>1</v>
       </c>
       <c r="D123" s="38" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="E123" s="1">
         <v>1</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="I123" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="K123" s="3">
         <v>2020</v>
@@ -14043,26 +14253,26 @@
         <v>57</v>
       </c>
       <c r="Q123" s="1" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="R123" s="1"/>
       <c r="S123" s="23" t="s">
-        <v>641</v>
+        <v>618</v>
       </c>
       <c r="T123" s="38" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="U123" s="1"/>
       <c r="V123" s="1"/>
       <c r="W123" s="8" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="X123" s="8"/>
       <c r="Y123" s="38" t="s">
-        <v>623</v>
+        <v>601</v>
       </c>
       <c r="Z123" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA123" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -14076,36 +14286,36 @@
       <c r="AG123" s="1"/>
       <c r="AH123" s="1"/>
     </row>
-    <row r="124" spans="1:34" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:34" ht="151.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C124" s="1">
         <v>2</v>
       </c>
       <c r="D124" s="38" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="E124" s="1">
         <v>1</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="I124" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="K124" s="3">
         <v>2020</v>
@@ -14126,26 +14336,26 @@
         <v>57</v>
       </c>
       <c r="Q124" s="1" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="R124" s="1"/>
       <c r="S124" s="23" t="s">
-        <v>641</v>
+        <v>618</v>
       </c>
       <c r="T124" s="38" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="U124" s="1"/>
       <c r="V124" s="1"/>
       <c r="W124" s="8" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="X124" s="8"/>
       <c r="Y124" s="38" t="s">
-        <v>624</v>
+        <v>602</v>
       </c>
       <c r="Z124" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA124" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -14159,36 +14369,36 @@
       <c r="AG124" s="1"/>
       <c r="AH124" s="1"/>
     </row>
-    <row r="125" spans="1:34" ht="138" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:34" ht="138" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C125" s="1">
         <v>2</v>
       </c>
       <c r="D125" s="38" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="E125" s="1">
         <v>2</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="I125" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="K125" s="3">
         <v>2020</v>
@@ -14209,24 +14419,24 @@
         <v>57</v>
       </c>
       <c r="Q125" s="1" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="R125" s="1"/>
       <c r="S125" s="23" t="s">
-        <v>641</v>
+        <v>618</v>
       </c>
       <c r="T125" s="38" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="U125" s="1"/>
       <c r="V125" s="1"/>
       <c r="W125" s="9"/>
       <c r="X125" s="9"/>
       <c r="Y125" s="38" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="Z125" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA125" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -14240,36 +14450,36 @@
       <c r="AG125" s="1"/>
       <c r="AH125" s="1"/>
     </row>
-    <row r="126" spans="1:34" ht="138" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:34" ht="138" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C126" s="1">
         <v>2</v>
       </c>
       <c r="D126" s="38" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="E126" s="1">
         <v>3</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="I126" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="K126" s="3">
         <v>2024</v>
@@ -14284,30 +14494,30 @@
         <v>27</v>
       </c>
       <c r="O126" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P126" s="1" t="s">
         <v>57</v>
       </c>
       <c r="Q126" s="1" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="R126" s="1"/>
       <c r="S126" s="23" t="s">
-        <v>641</v>
+        <v>618</v>
       </c>
       <c r="T126" s="38" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="U126" s="1"/>
       <c r="V126" s="1"/>
       <c r="W126" s="9"/>
       <c r="X126" s="9"/>
       <c r="Y126" s="38" t="s">
-        <v>625</v>
+        <v>603</v>
       </c>
       <c r="Z126" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA126" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -14321,36 +14531,36 @@
       <c r="AG126" s="1"/>
       <c r="AH126" s="1"/>
     </row>
-    <row r="127" spans="1:34" ht="138" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:34" ht="138" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C127" s="1">
         <v>2</v>
       </c>
       <c r="D127" s="38" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="E127" s="1">
         <v>4</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="I127" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="K127" s="3">
         <v>2029</v>
@@ -14365,30 +14575,30 @@
         <v>27</v>
       </c>
       <c r="O127" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P127" s="1" t="s">
         <v>57</v>
       </c>
       <c r="Q127" s="1" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="R127" s="1"/>
       <c r="S127" s="23" t="s">
-        <v>641</v>
+        <v>618</v>
       </c>
       <c r="T127" s="38" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="U127" s="1"/>
       <c r="V127" s="1"/>
       <c r="W127" s="9"/>
       <c r="X127" s="9"/>
       <c r="Y127" s="38" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="Z127" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA127" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -14402,36 +14612,36 @@
       <c r="AG127" s="1"/>
       <c r="AH127" s="1"/>
     </row>
-    <row r="128" spans="1:34" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:34" ht="151.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C128" s="1">
         <v>2</v>
       </c>
       <c r="D128" s="38" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="E128" s="1">
         <v>5</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="I128" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="K128" s="3">
         <v>2020</v>
@@ -14446,7 +14656,7 @@
         <v>27</v>
       </c>
       <c r="O128" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P128" s="1" t="s">
         <v>57</v>
@@ -14456,20 +14666,20 @@
       </c>
       <c r="R128" s="1"/>
       <c r="S128" s="23" t="s">
-        <v>641</v>
+        <v>618</v>
       </c>
       <c r="T128" s="38" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="U128" s="1"/>
       <c r="V128" s="1"/>
       <c r="W128" s="9"/>
       <c r="X128" s="9"/>
       <c r="Y128" s="38" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="Z128" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA128" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -14483,34 +14693,34 @@
       <c r="AG128" s="1"/>
       <c r="AH128" s="1"/>
     </row>
-    <row r="129" spans="1:34" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:34" ht="124.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C129" s="1">
         <v>2</v>
       </c>
       <c r="D129" s="38" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="E129" s="1">
         <v>6</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="H129" s="1"/>
       <c r="I129" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="K129" s="3">
         <v>2020</v>
@@ -14525,30 +14735,30 @@
         <v>27</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P129" s="1" t="s">
         <v>29</v>
       </c>
       <c r="Q129" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="R129" s="1"/>
       <c r="S129" s="1" t="s">
-        <v>638</v>
+        <v>615</v>
       </c>
       <c r="T129" s="38" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="U129" s="1"/>
       <c r="V129" s="1"/>
       <c r="W129" s="9"/>
       <c r="X129" s="9"/>
       <c r="Y129" s="38" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="Z129" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA129" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -14562,36 +14772,36 @@
       <c r="AG129" s="1"/>
       <c r="AH129" s="1"/>
     </row>
-    <row r="130" spans="1:34" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:34" ht="165.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C130" s="1">
         <v>2</v>
       </c>
       <c r="D130" s="38" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="E130" s="1">
         <v>7</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="I130" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="K130" s="3">
         <v>2020</v>
@@ -14606,30 +14816,30 @@
         <v>27</v>
       </c>
       <c r="O130" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P130" s="1" t="s">
         <v>57</v>
       </c>
       <c r="Q130" s="1" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="R130" s="1"/>
       <c r="S130" s="23" t="s">
-        <v>641</v>
+        <v>618</v>
       </c>
       <c r="T130" s="38" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="U130" s="1"/>
       <c r="V130" s="1"/>
       <c r="W130" s="9"/>
       <c r="X130" s="9"/>
       <c r="Y130" s="38" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="Z130" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA130" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -14643,34 +14853,34 @@
       <c r="AG130" s="1"/>
       <c r="AH130" s="1"/>
     </row>
-    <row r="131" spans="1:34" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:34" ht="165.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C131" s="1">
         <v>2</v>
       </c>
       <c r="D131" s="38" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="E131" s="1">
         <v>8</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="H131" s="1"/>
       <c r="I131" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="K131" s="3">
         <v>2020</v>
@@ -14695,22 +14905,22 @@
       </c>
       <c r="R131" s="1"/>
       <c r="S131" s="23" t="s">
-        <v>641</v>
+        <v>618</v>
       </c>
       <c r="T131" s="38" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="U131" s="1"/>
       <c r="V131" s="1"/>
       <c r="W131" s="8" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="X131" s="8"/>
       <c r="Y131" s="38" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="Z131" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA131" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -14724,34 +14934,34 @@
       <c r="AG131" s="1"/>
       <c r="AH131" s="1"/>
     </row>
-    <row r="132" spans="1:34" ht="84" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:34" ht="84" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="20" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C132" s="20">
         <v>2</v>
       </c>
-      <c r="D132" s="45" t="s">
-        <v>433</v>
+      <c r="D132" s="42" t="s">
+        <v>424</v>
       </c>
       <c r="E132" s="20">
         <v>9</v>
       </c>
       <c r="F132" s="20" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="G132" s="20" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="H132" s="20"/>
       <c r="I132" s="20" t="s">
         <v>36</v>
       </c>
       <c r="J132" s="20" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="K132" s="24">
         <v>2020</v>
@@ -14766,7 +14976,7 @@
         <v>27</v>
       </c>
       <c r="O132" s="20" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P132" s="20" t="s">
         <v>57</v>
@@ -14776,20 +14986,20 @@
       </c>
       <c r="R132" s="20"/>
       <c r="S132" s="23" t="s">
-        <v>641</v>
+        <v>618</v>
       </c>
       <c r="T132" s="38" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="U132" s="1"/>
       <c r="V132" s="1"/>
       <c r="W132" s="9"/>
       <c r="X132" s="9"/>
       <c r="Y132" s="38" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="Z132" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA132" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -14803,27 +15013,27 @@
       <c r="AG132" s="1"/>
       <c r="AH132" s="1"/>
     </row>
-    <row r="133" spans="1:34" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:34" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="20" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="B133" s="20" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C133" s="20">
         <v>2</v>
       </c>
-      <c r="D133" s="45" t="s">
-        <v>433</v>
+      <c r="D133" s="42" t="s">
+        <v>424</v>
       </c>
       <c r="E133" s="20">
         <v>9</v>
       </c>
       <c r="F133" s="20" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="G133" s="20" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="H133" s="20"/>
       <c r="I133" s="20" t="s">
@@ -14845,7 +15055,7 @@
         <v>27</v>
       </c>
       <c r="O133" s="20" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P133" s="20" t="s">
         <v>57</v>
@@ -14855,22 +15065,22 @@
       </c>
       <c r="R133" s="20"/>
       <c r="S133" s="1" t="s">
-        <v>642</v>
+        <v>619</v>
       </c>
       <c r="T133" s="38" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="U133" s="1"/>
       <c r="V133" s="1"/>
       <c r="W133" s="9" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="X133" s="9"/>
       <c r="Y133" s="38" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="Z133" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA133" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -14884,36 +15094,36 @@
       <c r="AG133" s="1"/>
       <c r="AH133" s="1"/>
     </row>
-    <row r="134" spans="1:34" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:34" ht="110.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C134" s="1">
         <v>2</v>
       </c>
       <c r="D134" s="38" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="E134" s="1">
         <v>10</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="I134" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="K134" s="3">
         <v>2020</v>
@@ -14938,20 +15148,20 @@
       </c>
       <c r="R134" s="1"/>
       <c r="S134" s="23" t="s">
-        <v>641</v>
+        <v>618</v>
       </c>
       <c r="T134" s="38" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="U134" s="1"/>
       <c r="V134" s="1"/>
       <c r="W134" s="9"/>
       <c r="X134" s="9"/>
       <c r="Y134" s="38" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="Z134" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA134" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -14965,30 +15175,30 @@
       <c r="AG134" s="1"/>
       <c r="AH134" s="1"/>
     </row>
-    <row r="135" spans="1:34" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:34" ht="165.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C135" s="1">
         <v>2</v>
       </c>
       <c r="D135" s="38" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="E135" s="1">
         <v>11</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="I135" s="1" t="s">
         <v>36</v>
@@ -15009,30 +15219,30 @@
         <v>27</v>
       </c>
       <c r="O135" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P135" s="1" t="s">
         <v>57</v>
       </c>
       <c r="Q135" s="1" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="R135" s="1"/>
       <c r="S135" s="23" t="s">
-        <v>641</v>
+        <v>618</v>
       </c>
       <c r="T135" s="38" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="U135" s="1"/>
       <c r="V135" s="1"/>
       <c r="W135" s="9"/>
       <c r="X135" s="9"/>
       <c r="Y135" s="38" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="Z135" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA135" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -15046,30 +15256,30 @@
       <c r="AG135" s="1"/>
       <c r="AH135" s="1"/>
     </row>
-    <row r="136" spans="1:34" ht="60" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:34" ht="60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="C136" s="1">
         <v>1</v>
       </c>
       <c r="D136" s="38" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="E136" s="1">
         <v>1</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="I136" s="1" t="s">
         <v>36</v>
@@ -15096,24 +15306,24 @@
         <v>57</v>
       </c>
       <c r="Q136" s="1" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="R136" s="1"/>
       <c r="S136" s="23" t="s">
-        <v>643</v>
+        <v>620</v>
       </c>
       <c r="T136" s="38" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="U136" s="1"/>
       <c r="V136" s="1"/>
       <c r="W136" s="9"/>
       <c r="X136" s="9"/>
       <c r="Y136" s="38" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="Z136" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA136" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -15127,30 +15337,30 @@
       <c r="AG136" s="1"/>
       <c r="AH136" s="1"/>
     </row>
-    <row r="137" spans="1:34" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:34" ht="114" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="C137" s="1">
         <v>2</v>
       </c>
       <c r="D137" s="38" t="s">
-        <v>660</v>
+        <v>637</v>
       </c>
       <c r="E137" s="1">
         <v>1</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>60</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="I137" s="1" t="s">
         <v>36</v>
@@ -15177,26 +15387,26 @@
         <v>57</v>
       </c>
       <c r="Q137" s="1" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="R137" s="1"/>
       <c r="S137" s="23" t="s">
-        <v>643</v>
+        <v>620</v>
       </c>
       <c r="T137" s="38" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="U137" s="1"/>
       <c r="V137" s="1"/>
       <c r="W137" s="8" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="X137" s="8"/>
       <c r="Y137" s="38" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="Z137" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA137" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -15210,30 +15420,30 @@
       <c r="AG137" s="1"/>
       <c r="AH137" s="1"/>
     </row>
-    <row r="138" spans="1:34" ht="358.8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:34" ht="358.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="C138" s="1">
         <v>2</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="E138" s="1">
         <v>2</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>60</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="I138" s="1" t="s">
         <v>36</v>
@@ -15260,26 +15470,26 @@
         <v>57</v>
       </c>
       <c r="Q138" s="1" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="R138" s="1"/>
       <c r="S138" s="23" t="s">
-        <v>643</v>
+        <v>620</v>
       </c>
       <c r="T138" s="1" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="U138" s="1"/>
       <c r="V138" s="1"/>
       <c r="W138" s="9" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="X138" s="9"/>
       <c r="Y138" s="4" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="Z138" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA138" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -15293,30 +15503,30 @@
       <c r="AG138" s="1"/>
       <c r="AH138" s="1"/>
     </row>
-    <row r="139" spans="1:34" ht="358.8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:34" ht="358.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="C139" s="1">
         <v>2</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="E139" s="1">
         <v>3</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>60</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="I139" s="1" t="s">
         <v>36</v>
@@ -15343,24 +15553,24 @@
         <v>57</v>
       </c>
       <c r="Q139" s="1" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="R139" s="1"/>
       <c r="S139" s="23" t="s">
-        <v>643</v>
+        <v>620</v>
       </c>
       <c r="T139" s="1" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="U139" s="1"/>
       <c r="V139" s="1"/>
       <c r="W139" s="9"/>
       <c r="X139" s="9"/>
       <c r="Y139" s="4" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="Z139" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA139" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -15374,31 +15584,39 @@
       <c r="AG139" s="1"/>
       <c r="AH139" s="1"/>
     </row>
-    <row r="140" spans="1:34" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:34" ht="84.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="C140" s="1"/>
+        <v>639</v>
+      </c>
+      <c r="C140" s="5">
+        <v>1</v>
+      </c>
       <c r="D140" s="38" t="s">
-        <v>661</v>
-      </c>
-      <c r="E140" s="1"/>
+        <v>638</v>
+      </c>
+      <c r="E140" s="5">
+        <v>1</v>
+      </c>
       <c r="F140" s="1" t="s">
-        <v>672</v>
+        <v>649</v>
       </c>
       <c r="G140" s="1"/>
       <c r="H140" s="1" t="s">
-        <v>666</v>
+        <v>643</v>
       </c>
       <c r="I140" s="1"/>
       <c r="J140" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="K140" s="3"/>
-      <c r="L140" s="3"/>
+        <v>648</v>
+      </c>
+      <c r="K140" s="44">
+        <v>2022</v>
+      </c>
+      <c r="L140" s="44">
+        <v>2022</v>
+      </c>
       <c r="M140" s="3"/>
       <c r="N140" s="3"/>
       <c r="O140" s="1" t="s">
@@ -15414,14 +15632,14 @@
       <c r="W140" s="9"/>
       <c r="X140" s="9"/>
       <c r="Y140" s="38" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="Z140" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA140" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
-        <v>PS1--</v>
+        <v>PS1-1-1</v>
       </c>
       <c r="AB140" s="1"/>
       <c r="AC140" s="1"/>
@@ -15431,31 +15649,39 @@
       <c r="AG140" s="1"/>
       <c r="AH140" s="1"/>
     </row>
-    <row r="141" spans="1:34" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:34" ht="83.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="C141" s="1"/>
+        <v>640</v>
+      </c>
+      <c r="C141" s="5">
+        <v>1</v>
+      </c>
       <c r="D141" s="38" t="s">
-        <v>664</v>
-      </c>
-      <c r="E141" s="1"/>
+        <v>641</v>
+      </c>
+      <c r="E141" s="5">
+        <v>1</v>
+      </c>
       <c r="F141" s="1" t="s">
-        <v>669</v>
+        <v>646</v>
       </c>
       <c r="G141" s="1"/>
       <c r="H141" s="1" t="s">
-        <v>665</v>
+        <v>642</v>
       </c>
       <c r="I141" s="1"/>
       <c r="J141" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="K141" s="3"/>
-      <c r="L141" s="3"/>
+        <v>647</v>
+      </c>
+      <c r="K141" s="44">
+        <v>2022</v>
+      </c>
+      <c r="L141" s="44">
+        <v>2022</v>
+      </c>
       <c r="M141" s="3"/>
       <c r="N141" s="3"/>
       <c r="O141" s="1" t="s">
@@ -15471,14 +15697,14 @@
       <c r="W141" s="9"/>
       <c r="X141" s="9"/>
       <c r="Y141" s="38" t="s">
-        <v>659</v>
+        <v>636</v>
       </c>
       <c r="Z141" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AA141" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
-        <v>PS2--</v>
+        <v>PS2-1-1</v>
       </c>
       <c r="AB141" s="1"/>
       <c r="AC141" s="1"/>
@@ -15488,34 +15714,34 @@
       <c r="AG141" s="1"/>
       <c r="AH141" s="1"/>
     </row>
-    <row r="142" spans="1:34" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:34" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="C142" s="1">
         <v>1</v>
       </c>
       <c r="D142" s="38" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="E142" s="1">
         <v>1</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="G142" s="1"/>
       <c r="H142" s="1" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="I142" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="K142" s="3">
         <v>2020</v>
@@ -15536,7 +15762,7 @@
         <v>57</v>
       </c>
       <c r="Q142" s="1" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="R142" s="1"/>
       <c r="S142" s="1"/>
@@ -15544,12 +15770,12 @@
       <c r="U142" s="1"/>
       <c r="V142" s="1"/>
       <c r="W142" s="39" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="X142" s="11"/>
       <c r="Y142" s="38"/>
       <c r="Z142" s="1" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="AA142" s="1" t="str">
         <f>+Indicadores[[#This Row],[CP]]&amp;"-"&amp;Indicadores[[#This Row],[       ]]&amp;"-"&amp;Indicadores[[#This Row],[CSS]]</f>
@@ -15563,37 +15789,39 @@
       <c r="AG142" s="1"/>
       <c r="AH142" s="1"/>
     </row>
-    <row r="143" spans="1:34" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:34" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="C143" s="1">
         <v>1</v>
       </c>
       <c r="D143" s="38" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="E143" s="1">
         <v>2</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="G143" s="1"/>
       <c r="H143" s="1" t="s">
-        <v>667</v>
+        <v>644</v>
       </c>
       <c r="I143" s="1"/>
       <c r="J143" s="1" t="s">
-        <v>668</v>
+        <v>645</v>
       </c>
       <c r="K143" s="3">
         <v>2021</v>
       </c>
-      <c r="L143" s="3"/>
+      <c r="L143" s="44">
+        <v>2021</v>
+      </c>
       <c r="M143" s="3"/>
       <c r="N143" s="3"/>
       <c r="O143" s="1" t="s">
@@ -46237,62 +46465,68 @@
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
-  <conditionalFormatting sqref="G69:G106 G133:G136 G138:G139 G142:G1048576 H140:H141 G1:G15 G60:G67">
-    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+  <conditionalFormatting sqref="G69:G87 G133:G136 G138:G139 G142:G1048576 H140:H141 G1:G15 G60:G67 G89:G106">
+    <cfRule type="duplicateValues" dxfId="45" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T136:V1048576 T1:V7 T53:V106 T9:V50 T8 T114 T115:V122 T108:V112 T107:U107 T113:U113">
-    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="turismo">
+  <conditionalFormatting sqref="T136:V1048576 T1:V7 T9:V50 T8 T114 T115:V122 T108:V112 T107:U107 T113:U113 T53:V106">
+    <cfRule type="containsText" dxfId="44" priority="14" operator="containsText" text="turismo">
       <formula>NOT(ISERROR(SEARCH("turismo",T1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z1:Z75 Z133 Z136:Z1048576 Z77:Z122">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="13" operator="equal">
       <formula>"realizada"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z123:Z132">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="12" operator="equal">
       <formula>"realizada"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z134:Z135">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="11" operator="equal">
       <formula>"realizada"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z76">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="10" operator="equal">
       <formula>"realizada"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H136">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H134">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U8:V8">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="turismo">
+    <cfRule type="containsText" dxfId="37" priority="7" operator="containsText" text="turismo">
       <formula>NOT(ISERROR(SEARCH("turismo",U8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H117">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X20:X21">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="turismo">
+    <cfRule type="containsText" dxfId="35" priority="5" operator="containsText" text="turismo">
       <formula>NOT(ISERROR(SEARCH("turismo",X20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X23">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="turismo">
+    <cfRule type="containsText" dxfId="34" priority="4" operator="containsText" text="turismo">
       <formula>NOT(ISERROR(SEARCH("turismo",X23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X27">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="turismo">
+    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="turismo">
       <formula>NOT(ISERROR(SEARCH("turismo",X27)))</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87:H88">
+    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G88">
+    <cfRule type="duplicateValues" dxfId="31" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="W13" r:id="rId1" location=":~:text=La%20Estrategia%20Clim%C3%A1tica%20de%20Largo%20Plazo%20(ECLP)%20es%20el%20instrumento,hacia%20un%20desarrollo%20bajo%20en" xr:uid="{AD5A223E-C8DA-4F39-88B2-D8F410F224A9}"/>
